--- a/Database/Database Design.xlsx
+++ b/Database/Database Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Study\TatvaSoft\Assignment -2\Notes-Marketplace\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18274" windowHeight="8914"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2357" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="198">
   <si>
     <t>Notes - MarketPlace</t>
   </si>
@@ -233,24 +233,15 @@
     <t>UserID who has updated this record.</t>
   </si>
   <si>
-    <t>Table: - AdminDetail</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is table store admin detail like secondary email,phone number, etc. </t>
   </si>
   <si>
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>Secondary Email</t>
-  </si>
-  <si>
     <t>Secondary email of admin in case of primary email is not working properly.</t>
   </si>
   <si>
-    <t>Table: - NotesDetail</t>
-  </si>
-  <si>
     <t>This is table for notes detail. It stores the all detail related to notes.</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
   </si>
   <si>
     <t>Remark given when note is rejected or removed by admin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table: - NotesStatus </t>
   </si>
   <si>
     <t>This is master table. Over this table one can do six static entries i.e. for defining status of note : Draft, In Review, Submitted, Published, Rejected, Unpublished  entries can be inserted via backend script.</t>
@@ -585,9 +573,6 @@
     <t>Table: CTC</t>
   </si>
   <si>
-    <t>This is master table. Over this table one can do three static entries i.e. for defining status of note : Country, Type, Category  entries can be inserted via backend scrip</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entries can be Country, Type, Category </t>
   </si>
   <si>
@@ -616,17 +601,39 @@
   </si>
   <si>
     <t>NotesStatusID</t>
+  </si>
+  <si>
+    <t>SecondaryEmail</t>
+  </si>
+  <si>
+    <t>Table: - AdminDetails</t>
+  </si>
+  <si>
+    <t>Table: - NotesDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: - NoteStatus </t>
+  </si>
+  <si>
+    <t>This is master table. Over this table one can do three static entries i.e. for defining status of note : Country, Type, Category  entries can be inserted via backend script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -662,19 +669,19 @@
       <name val="Docs-Calibri"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +716,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -806,63 +818,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,16 +885,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,36 +903,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Neutral 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1134,10 +1150,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1011"/>
+  <dimension ref="A1:E1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1147,7 +1163,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.65" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28"/>
@@ -1170,7 +1186,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18.45">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="28"/>
@@ -1179,7 +1195,7 @@
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="14.6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="28"/>
@@ -1206,7 +1222,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.6">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>8</v>
@@ -1221,7 +1237,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.6">
       <c r="A8" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>8</v>
@@ -1422,7 +1438,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18.45">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="28"/>
@@ -1431,13 +1447,13 @@
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="14.6">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" ht="14.6">
       <c r="A24" s="3" t="s">
@@ -1458,7 +1474,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.6">
       <c r="A25" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>8</v>
@@ -1488,7 +1504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.6">
+    <row r="27" spans="1:5" ht="14.6" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.6">
+    <row r="28" spans="1:5" ht="14.6" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1611,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="18.45">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="28"/>
@@ -1604,7 +1620,7 @@
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="14.6">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="28"/>
@@ -1631,7 +1647,7 @@
     </row>
     <row r="38" spans="1:5" ht="14.6">
       <c r="A38" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>8</v>
@@ -1729,7 +1745,7 @@
     </row>
     <row r="44" spans="1:5" ht="14.6">
       <c r="A44" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>13</v>
@@ -1848,7 +1864,7 @@
     </row>
     <row r="51" spans="1:5" ht="14.6">
       <c r="A51" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>25</v>
@@ -1858,12 +1874,12 @@
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.6">
       <c r="A52" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>8</v>
@@ -1873,364 +1889,358 @@
         <v>26</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.6">
       <c r="A53" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.6">
+      <c r="A54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.6">
+      <c r="A55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.6">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="18.45">
-      <c r="A56" s="32" t="s">
+    <row r="56" spans="1:5" ht="14.6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="18.45">
+      <c r="A58" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.6">
+      <c r="A59" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.6">
-      <c r="A57" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.6">
-      <c r="A58" s="11" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.6">
+      <c r="A60" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.6">
-      <c r="A59" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="17" t="s">
+    <row r="61" spans="1:5" ht="14.6">
+      <c r="A61" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.6">
-      <c r="A60" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="18">
-        <v>20</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29.15">
-      <c r="A61" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.6">
       <c r="A62" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="18">
+        <v>20</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29.15">
+      <c r="A63" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.6">
+      <c r="A64" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="19">
         <v>30</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.6">
-      <c r="A63" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.6">
-      <c r="A64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18" t="s">
-        <v>26</v>
+      <c r="D64" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.6">
       <c r="A65" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.6">
       <c r="A66" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.6">
+      <c r="A67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.6">
+      <c r="A68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.6">
+      <c r="A69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="14.6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="18.45">
-      <c r="A69" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-    </row>
     <row r="70" spans="1:5" ht="14.6">
-      <c r="A70" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="14.6">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="18.45">
+      <c r="A72" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="1:5" ht="14.6">
+      <c r="A73" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.6">
+      <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14.6">
-      <c r="A72" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14.6">
-      <c r="A73" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="14.6">
-      <c r="A74" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.6">
       <c r="A75" s="6" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="18">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C75" s="18"/>
       <c r="D75" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.6">
       <c r="A76" s="6" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="18">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C76" s="18"/>
       <c r="D76" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.6">
       <c r="A77" s="6" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>41</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C77" s="18"/>
       <c r="D77" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.6">
       <c r="A78" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>41</v>
+      <c r="C78" s="18">
+        <v>100</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.6">
       <c r="A79" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>13</v>
@@ -2239,30 +2249,32 @@
         <v>100</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.6">
       <c r="A80" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D80" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.6">
       <c r="A81" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>13</v>
@@ -2273,81 +2285,79 @@
       <c r="D81" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="14.6">
+      <c r="E81" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>95</v>
+      <c r="E82" s="24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.6">
       <c r="A83" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="18">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C83" s="18"/>
       <c r="D83" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.6">
       <c r="A84" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="18">
-        <v>100</v>
+      <c r="C84" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.6">
       <c r="A85" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.6">
       <c r="A86" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>13</v>
@@ -2359,74 +2369,78 @@
         <v>26</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.6">
       <c r="A87" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C87" s="18">
+        <v>100</v>
+      </c>
       <c r="D87" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.6">
       <c r="A88" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>41</v>
+      <c r="C88" s="18">
+        <v>100</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.6">
       <c r="A89" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C89" s="18">
+        <v>100</v>
+      </c>
       <c r="D89" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.6">
       <c r="A90" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.6">
       <c r="A91" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>13</v>
@@ -2438,1064 +2452,1066 @@
         <v>26</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.6">
       <c r="A92" s="6" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.6">
       <c r="A93" s="6" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.6">
       <c r="A94" s="6" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D94" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.6">
       <c r="A95" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.6">
       <c r="A96" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14.6">
+      <c r="A97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.6">
+      <c r="A98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.6">
+      <c r="A99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.6">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="14.6">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="18.45">
-      <c r="A99" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="29"/>
-    </row>
-    <row r="100" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A100" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
+    <row r="100" spans="1:5" ht="14.6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="14.6">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="18.45">
+      <c r="A102" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="29"/>
+    </row>
+    <row r="103" spans="1:5" ht="13.2" customHeight="1">
+      <c r="A103" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+    </row>
+    <row r="104" spans="1:5" ht="14.6">
+      <c r="A104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="14.6">
-      <c r="A102" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="14.6">
-      <c r="A103" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="18">
-        <v>50</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="14.6">
-      <c r="A104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.6">
       <c r="A105" s="6" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.6">
       <c r="A106" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C106" s="18">
+        <v>50</v>
+      </c>
       <c r="D106" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.6">
       <c r="A107" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D107" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.6">
       <c r="A108" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.6">
       <c r="A109" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E109" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.6">
+      <c r="A110" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.6">
+      <c r="A111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.6">
+      <c r="A112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.6">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="14.6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" ht="18.45">
-      <c r="A112" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
-    </row>
     <row r="113" spans="1:5" ht="14.6">
-      <c r="A113" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" ht="14.6">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="18.45">
+      <c r="A115" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="29"/>
+    </row>
+    <row r="116" spans="1:5" ht="14.6">
+      <c r="A116" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+    </row>
+    <row r="117" spans="1:5" ht="14.6">
+      <c r="A117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.6">
-      <c r="A115" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="18" t="s">
+    <row r="118" spans="1:5" ht="14.6">
+      <c r="A118" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="14.6">
-      <c r="A116" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="14.6">
-      <c r="A117" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="29.15">
-      <c r="A118" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.6">
       <c r="A119" s="6" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.6">
       <c r="A120" s="6" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="14.6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="29.15">
       <c r="A121" s="6" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.6">
       <c r="A122" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.6">
       <c r="A123" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E123" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14.6">
+      <c r="A124" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.6">
+      <c r="A125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14.6">
+      <c r="A126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.6">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="14.6">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" ht="18.45">
-      <c r="A126" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="29"/>
-    </row>
     <row r="127" spans="1:5" ht="14.6">
-      <c r="A127" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" ht="14.6">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" ht="18.45">
+      <c r="A129" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="29"/>
+    </row>
+    <row r="130" spans="1:5" ht="14.6">
+      <c r="A130" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131" spans="1:5" ht="14.6">
+      <c r="A131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="14.6">
-      <c r="A129" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="18">
-        <v>50</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="14.6">
-      <c r="A130" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="18">
-        <v>50</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="14.6">
-      <c r="A131" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="18">
-        <v>100</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.6">
       <c r="A132" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>41</v>
+      <c r="C132" s="18">
+        <v>50</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.6">
       <c r="A133" s="6" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C133" s="18">
+        <v>50</v>
+      </c>
       <c r="D133" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="14.6">
       <c r="A134" s="6" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C134" s="18">
+        <v>100</v>
+      </c>
       <c r="D134" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="14.6">
       <c r="A135" s="6" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D135" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="14.6">
       <c r="A136" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="14.6">
       <c r="A137" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E137" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="14.6">
+      <c r="A138" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="14.6">
+      <c r="A139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="14.6">
+      <c r="A140" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.6">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="14.6">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" ht="18.45">
-      <c r="A140" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="29"/>
-    </row>
     <row r="141" spans="1:5" ht="14.6">
-      <c r="A141" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="14.6">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="18.45">
+      <c r="A143" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="29"/>
+    </row>
+    <row r="144" spans="1:5" ht="14.6">
+      <c r="A144" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+    </row>
+    <row r="145" spans="1:5" ht="14.6">
+      <c r="A145" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="14.6">
-      <c r="A143" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="14.6">
-      <c r="A144" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="14.6">
-      <c r="A145" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="14.6">
       <c r="A146" s="6" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>41</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C146" s="18"/>
       <c r="D146" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="14.6">
       <c r="A147" s="6" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="14.6">
       <c r="A148" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="14.6">
       <c r="A149" s="6" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D149" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="14.6">
       <c r="A150" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="14.6">
       <c r="A151" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E151" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14.6">
+      <c r="A152" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="14.6">
+      <c r="A153" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="14.6">
+      <c r="A154" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.6">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="14.6">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" ht="18.45">
-      <c r="A154" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="29"/>
-    </row>
     <row r="155" spans="1:5" ht="14.6">
-      <c r="A155" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" ht="14.6">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" ht="18.45">
+      <c r="A157" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="29"/>
+    </row>
+    <row r="158" spans="1:5" ht="14.6">
+      <c r="A158" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+    </row>
+    <row r="159" spans="1:5" ht="14.6">
+      <c r="A159" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="14.6">
-      <c r="A157" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="14.6">
-      <c r="A158" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="14.6">
-      <c r="A159" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D159" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="14.6">
       <c r="A160" s="6" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="14.6">
       <c r="A161" s="6" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="14.6">
       <c r="A162" s="6" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C162" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D162" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="14.6">
       <c r="A163" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E163" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14.6">
+      <c r="A164" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14.6">
+      <c r="A165" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14.6">
+      <c r="A166" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="12.45">
-      <c r="E164" s="20"/>
-    </row>
-    <row r="165" spans="1:5" ht="12.45">
-      <c r="E165" s="20"/>
-    </row>
-    <row r="166" spans="1:5" ht="18.45">
-      <c r="A166" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="29"/>
-    </row>
-    <row r="167" spans="1:5" ht="14.6">
-      <c r="A167" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-    </row>
-    <row r="168" spans="1:5" ht="14.6">
-      <c r="A168" s="3" t="s">
+    <row r="167" spans="1:5" ht="12.45">
+      <c r="E167" s="20"/>
+    </row>
+    <row r="168" spans="1:5" ht="12.45">
+      <c r="E168" s="20"/>
+    </row>
+    <row r="169" spans="1:5" ht="18.45">
+      <c r="A169" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:5" ht="14.6">
+      <c r="A170" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+    </row>
+    <row r="171" spans="1:5" ht="14.6">
+      <c r="A171" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D171" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="14.6">
-      <c r="A169" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="14.6">
-      <c r="A170" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="14.6">
-      <c r="A171" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="14.6">
       <c r="A172" s="6" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>8</v>
@@ -3505,12 +3521,12 @@
         <v>9</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="14.6">
       <c r="A173" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>8</v>
@@ -3520,12 +3536,12 @@
         <v>9</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="14.6">
       <c r="A174" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>8</v>
@@ -3535,12 +3551,12 @@
         <v>9</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="14.6">
       <c r="A175" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>8</v>
@@ -3550,12 +3566,12 @@
         <v>9</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="14.6">
       <c r="A176" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>8</v>
@@ -3565,12 +3581,12 @@
         <v>9</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="14.6">
       <c r="A177" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>8</v>
@@ -3580,590 +3596,626 @@
         <v>9</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="12.45">
-      <c r="E178" s="20"/>
-    </row>
-    <row r="179" spans="1:5" ht="12.45">
-      <c r="E179" s="20"/>
-    </row>
-    <row r="180" spans="1:5" ht="18.45">
-      <c r="A180" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="29"/>
-    </row>
-    <row r="181" spans="1:5" ht="14.6">
-      <c r="A181" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-    </row>
-    <row r="182" spans="1:5" ht="14.6">
-      <c r="A182" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="14.6">
+      <c r="A178" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="14.6">
+      <c r="A179" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.6">
+      <c r="A180" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="12.45">
+      <c r="E181" s="20"/>
+    </row>
+    <row r="182" spans="1:5" ht="12.45">
+      <c r="E182" s="20"/>
+    </row>
+    <row r="183" spans="1:5" ht="18.45">
+      <c r="A183" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="29"/>
+    </row>
+    <row r="184" spans="1:5" ht="14.6">
+      <c r="A184" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+    </row>
+    <row r="185" spans="1:5" ht="14.6">
+      <c r="A185" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B185" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D185" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E185" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="14.6">
-      <c r="A183" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" s="18">
-        <v>100</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="14.6">
-      <c r="A184" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="18">
-        <v>100</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="14.6">
-      <c r="A185" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="18">
-        <v>15</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="29.15">
+    <row r="186" spans="1:5" ht="14.6">
       <c r="A186" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C186" s="18" t="s">
-        <v>41</v>
+      <c r="C186" s="18">
+        <v>100</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="24.9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="14.6">
       <c r="A187" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C187" s="18" t="s">
-        <v>41</v>
+      <c r="C187" s="18">
+        <v>100</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>172</v>
+        <v>26</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.6">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C188" s="18">
+        <v>15</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="29.15">
+      <c r="A189" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="24.9">
+      <c r="A190" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="14.6">
+      <c r="A191" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="18">
         <v>50</v>
       </c>
-      <c r="D188" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="14.6">
-      <c r="A189" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B189" s="6" t="s">
+      <c r="D191" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="14.6">
+      <c r="A192" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C189" s="18">
+      <c r="C192" s="18">
         <v>50</v>
       </c>
-      <c r="D189" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="14.6">
-      <c r="A190" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" s="18">
-        <v>50</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="14.6">
-      <c r="A191" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="43.75">
-      <c r="A192" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="18"/>
       <c r="D192" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="14.6">
       <c r="A193" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B193" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="18">
+        <v>50</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="14.6">
+      <c r="A194" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="14.6">
-      <c r="A194" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="43.75">
+      <c r="A195" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="14.6">
+      <c r="A196" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="14.6">
+      <c r="A197" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="12.45">
-      <c r="E195" s="20"/>
-    </row>
-    <row r="196" spans="1:5" ht="12.45">
-      <c r="E196" s="20"/>
-    </row>
-    <row r="197" spans="1:5" ht="18.45">
-      <c r="A197" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="29"/>
-    </row>
-    <row r="198" spans="1:5" ht="14.6">
-      <c r="A198" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-      <c r="E198" s="28"/>
-    </row>
-    <row r="199" spans="1:5" ht="14.6">
-      <c r="A199" s="3" t="s">
+    <row r="198" spans="1:5" ht="12.45">
+      <c r="E198" s="20"/>
+    </row>
+    <row r="199" spans="1:5" ht="12.45">
+      <c r="E199" s="20"/>
+    </row>
+    <row r="200" spans="1:5" ht="18.45">
+      <c r="A200" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="29"/>
+    </row>
+    <row r="201" spans="1:5" ht="14.6">
+      <c r="A201" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
+    </row>
+    <row r="202" spans="1:5" ht="14.6">
+      <c r="A202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B202" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C202" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D202" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E202" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="14.6">
-      <c r="A200" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="14.6">
-      <c r="A201" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" s="18">
-        <v>100</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="14.6">
-      <c r="A202" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="14.6">
       <c r="A203" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="14.6">
-      <c r="A204" s="9" t="s">
-        <v>24</v>
+      <c r="A204" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C204" s="18">
+        <v>100</v>
+      </c>
       <c r="D204" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="43.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="14.6">
       <c r="A205" s="6" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D205" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="14.6">
       <c r="A206" s="6" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C206" s="18"/>
       <c r="D206" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="14.6">
-      <c r="A207" s="6" t="s">
-        <v>32</v>
+      <c r="A207" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C207" s="18"/>
       <c r="D207" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="14.6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="43.75">
       <c r="A208" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E208" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="14.6">
+      <c r="A209" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="14.6">
+      <c r="A210" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="14.6">
+      <c r="A211" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="14.6">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5" ht="14.6">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="10"/>
-    </row>
-    <row r="211" spans="1:5" ht="18.45">
-      <c r="A211" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="29"/>
-    </row>
     <row r="212" spans="1:5" ht="14.6">
-      <c r="A212" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" ht="14.6">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="1:5" ht="18.45">
+      <c r="A214" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="29"/>
+    </row>
+    <row r="215" spans="1:5" ht="14.6">
+      <c r="A215" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
+    </row>
+    <row r="216" spans="1:5" ht="14.6">
+      <c r="A216" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B216" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C216" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D216" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E216" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="14.6">
-      <c r="A214" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B214" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="14.6">
-      <c r="A215" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B215" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" s="18">
-        <v>50</v>
-      </c>
-      <c r="D215" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="14.6">
-      <c r="A216" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B216" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="14.6">
       <c r="A217" s="6" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="14.6">
       <c r="A218" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C218" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C218" s="18">
+        <v>50</v>
+      </c>
       <c r="D218" s="18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="14.6">
       <c r="A219" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="14.6">
       <c r="A220" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="18" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E220" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14.6">
+      <c r="A221" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14.6">
+      <c r="A222" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14.6">
+      <c r="A223" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="12.45">
-      <c r="E221" s="20"/>
-    </row>
-    <row r="222" spans="1:5" ht="12.45">
-      <c r="E222" s="20"/>
-    </row>
-    <row r="223" spans="1:5" ht="12.45">
-      <c r="E223" s="20"/>
     </row>
     <row r="224" spans="1:5" ht="12.45">
       <c r="E224" s="20"/>
@@ -6529,37 +6581,46 @@
     <row r="1011" spans="5:5" ht="12.45">
       <c r="E1011" s="20"/>
     </row>
+    <row r="1012" spans="5:5" ht="12.45">
+      <c r="E1012" s="20"/>
+    </row>
+    <row r="1013" spans="5:5" ht="12.45">
+      <c r="E1013" s="20"/>
+    </row>
+    <row r="1014" spans="5:5" ht="12.45">
+      <c r="E1014" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A72:E72"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A198:E198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Database Design.xlsx
+++ b/Database/Database Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="199">
   <si>
     <t>Notes - MarketPlace</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>This is master table. Over this table one can do three static entries i.e. for defining status of note : Country, Type, Category  entries can be inserted via backend script</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with User table.</t>
   </si>
 </sst>
 </file>
@@ -903,22 +906,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -927,8 +924,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1152,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:E1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1163,7 +1166,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.65" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28"/>
@@ -1186,7 +1189,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18.45">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="28"/>
@@ -1195,7 +1198,7 @@
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="14.6">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="28"/>
@@ -1438,7 +1441,7 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18.45">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="28"/>
@@ -1447,13 +1450,13 @@
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="14.6">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" ht="14.6">
       <c r="A24" s="3" t="s">
@@ -1611,7 +1614,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="18.45">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="28"/>
@@ -1620,7 +1623,7 @@
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="14.6">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="28"/>
@@ -1657,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.6">
@@ -1952,7 +1955,7 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="18.45">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="32" t="s">
         <v>194</v>
       </c>
       <c r="B58" s="28"/>
@@ -1961,13 +1964,13 @@
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" ht="14.6">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:5" ht="14.6">
       <c r="A60" s="11" t="s">
@@ -1997,8 +2000,8 @@
       <c r="D61" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>10</v>
+      <c r="E61" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.6">
@@ -2142,7 +2145,7 @@
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="18.45">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="27" t="s">
         <v>195</v>
       </c>
       <c r="B72" s="28"/>
@@ -2151,7 +2154,7 @@
       <c r="E72" s="29"/>
     </row>
     <row r="73" spans="1:5" ht="14.6">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="28"/>
@@ -2592,7 +2595,7 @@
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" ht="18.45">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="27" t="s">
         <v>196</v>
       </c>
       <c r="B102" s="28"/>
@@ -2601,13 +2604,13 @@
       <c r="E102" s="29"/>
     </row>
     <row r="103" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" ht="14.6">
       <c r="A104" s="3" t="s">
@@ -2765,7 +2768,7 @@
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="18.45">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="28"/>
@@ -2774,7 +2777,7 @@
       <c r="E115" s="29"/>
     </row>
     <row r="116" spans="1:5" ht="14.6">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="28"/>
@@ -2949,7 +2952,7 @@
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="18.45">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="27" t="s">
         <v>120</v>
       </c>
       <c r="B129" s="28"/>
@@ -2958,7 +2961,7 @@
       <c r="E129" s="29"/>
     </row>
     <row r="130" spans="1:5" ht="14.6">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B130" s="28"/>
@@ -3141,7 +3144,7 @@
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="18.45">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B143" s="28"/>
@@ -3150,7 +3153,7 @@
       <c r="E143" s="29"/>
     </row>
     <row r="144" spans="1:5" ht="14.6">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B144" s="28"/>
@@ -3327,7 +3330,7 @@
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" ht="18.45">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B157" s="28"/>
@@ -3336,7 +3339,7 @@
       <c r="E157" s="29"/>
     </row>
     <row r="158" spans="1:5" ht="14.6">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B158" s="28"/>
@@ -3475,7 +3478,7 @@
       <c r="E168" s="20"/>
     </row>
     <row r="169" spans="1:5" ht="18.45">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B169" s="28"/>
@@ -3484,7 +3487,7 @@
       <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" ht="14.6">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="30" t="s">
         <v>141</v>
       </c>
       <c r="B170" s="28"/>
@@ -3651,7 +3654,7 @@
       <c r="E182" s="20"/>
     </row>
     <row r="183" spans="1:5" ht="18.45">
-      <c r="A183" s="30" t="s">
+      <c r="A183" s="27" t="s">
         <v>158</v>
       </c>
       <c r="B183" s="28"/>
@@ -3660,7 +3663,7 @@
       <c r="E183" s="29"/>
     </row>
     <row r="184" spans="1:5" ht="14.6">
-      <c r="A184" s="31" t="s">
+      <c r="A184" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B184" s="28"/>
@@ -3888,7 +3891,7 @@
       <c r="E199" s="20"/>
     </row>
     <row r="200" spans="1:5" ht="18.45">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="27" t="s">
         <v>173</v>
       </c>
       <c r="B200" s="28"/>
@@ -3897,7 +3900,7 @@
       <c r="E200" s="29"/>
     </row>
     <row r="201" spans="1:5" ht="14.6">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B201" s="28"/>
@@ -4076,7 +4079,7 @@
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="1:5" ht="18.45">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="27" t="s">
         <v>182</v>
       </c>
       <c r="B214" s="28"/>
@@ -4085,7 +4088,7 @@
       <c r="E214" s="29"/>
     </row>
     <row r="215" spans="1:5" ht="14.6">
-      <c r="A215" s="31" t="s">
+      <c r="A215" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B215" s="28"/>
@@ -6592,6 +6595,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A169:E169"/>
     <mergeCell ref="A214:E214"/>
     <mergeCell ref="A215:E215"/>
     <mergeCell ref="A116:E116"/>
@@ -6606,21 +6624,6 @@
     <mergeCell ref="A184:E184"/>
     <mergeCell ref="A200:E200"/>
     <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Database Design.xlsx
+++ b/Database/Database Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="212">
   <si>
     <t>Notes - MarketPlace</t>
   </si>
@@ -233,15 +233,6 @@
     <t>UserID who has updated this record.</t>
   </si>
   <si>
-    <t xml:space="preserve">This is table store admin detail like secondary email,phone number, etc. </t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Secondary email of admin in case of primary email is not working properly.</t>
-  </si>
-  <si>
     <t>This is table for notes detail. It stores the all detail related to notes.</t>
   </si>
   <si>
@@ -603,12 +594,6 @@
     <t>NotesStatusID</t>
   </si>
   <si>
-    <t>SecondaryEmail</t>
-  </si>
-  <si>
-    <t>Table: - AdminDetails</t>
-  </si>
-  <si>
     <t>Table: - NotesDetails</t>
   </si>
   <si>
@@ -619,13 +604,169 @@
   </si>
   <si>
     <t>FOREIGN KEY relationship with User table.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: - Countries</t>
+    </r>
+  </si>
+  <si>
+    <t>This is master table. Super Admin or Admin can define.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY </t>
+  </si>
+  <si>
+    <r>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CountryCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: - NoteCategories</t>
+    </r>
+  </si>
+  <si>
+    <t>Computer Science, IT,  Politics, Sports, Cricket,  etc..</t>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description to explain what this category means. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: - NoteTypes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Handwritten notes, university notes, novel, story books etc.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description to explain what this type means. </t>
+  </si>
+  <si>
+    <t>Country name</t>
+  </si>
+  <si>
+    <t>Country code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -683,8 +824,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +899,26 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -820,13 +1011,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -858,31 +1075,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,32 +1099,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1153,26 +1354,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1014"/>
+  <dimension ref="A1:E988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.69140625" customWidth="1"/>
-    <col min="5" max="5" width="95.69140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="95.69140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.65" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="14.6">
       <c r="A2" s="1"/>
@@ -1189,22 +1390,22 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18.45">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="14.6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="14.6">
       <c r="A6" s="3" t="s">
@@ -1225,13 +1426,13 @@
     </row>
     <row r="7" spans="1:5" ht="14.6">
       <c r="A7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1240,13 +1441,13 @@
     </row>
     <row r="8" spans="1:5" ht="14.6">
       <c r="A8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1257,13 +1458,13 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>50</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1274,13 +1475,13 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>50</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1291,13 +1492,13 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <v>100</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1308,13 +1509,13 @@
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="11">
         <v>24</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1328,8 +1529,8 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1343,8 +1544,8 @@
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1355,11 +1556,11 @@
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1370,11 +1571,11 @@
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1385,11 +1586,11 @@
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1400,11 +1601,11 @@
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1415,11 +1616,11 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1441,22 +1642,22 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18.45">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="14.6">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="14.6">
       <c r="A24" s="3" t="s">
@@ -1477,13 +1678,13 @@
     </row>
     <row r="25" spans="1:5" ht="14.6">
       <c r="A25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1494,13 +1695,13 @@
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="11">
         <v>50</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1511,13 +1712,13 @@
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1528,11 +1729,11 @@
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1543,11 +1744,11 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1558,11 +1759,11 @@
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1573,11 +1774,11 @@
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1588,11 +1789,11 @@
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -1614,22 +1815,22 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="18.45">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" ht="14.6">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="14.6">
       <c r="A37" s="3" t="s">
@@ -1650,28 +1851,28 @@
     </row>
     <row r="38" spans="1:5" ht="14.6">
       <c r="A38" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.6">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -1682,13 +1883,13 @@
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="11">
         <v>10</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -1699,13 +1900,13 @@
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="11">
         <v>20</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -1716,13 +1917,13 @@
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -1733,13 +1934,13 @@
       <c r="A43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="11">
         <v>100</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -1748,18 +1949,18 @@
     </row>
     <row r="44" spans="1:5" ht="14.6">
       <c r="A44" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="11">
         <v>100</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="23" t="s">
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1767,13 +1968,13 @@
       <c r="A45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="11">
         <v>50</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -1784,13 +1985,13 @@
       <c r="A46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="11">
         <v>50</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -1801,13 +2002,13 @@
       <c r="A47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="11">
         <v>50</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -1818,13 +2019,13 @@
       <c r="A48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="11">
         <v>50</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -1835,13 +2036,13 @@
       <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="11">
         <v>100</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -1852,13 +2053,13 @@
       <c r="A50" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="11">
         <v>100</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -1869,11 +2070,11 @@
       <c r="A51" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -1884,11 +2085,11 @@
       <c r="A52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -1899,11 +2100,11 @@
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -1914,11 +2115,11 @@
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -1929,11 +2130,11 @@
       <c r="A55" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -1955,630 +2156,620 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="18.45">
-      <c r="A58" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5" ht="14.6">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:5" ht="14.6">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.6">
-      <c r="A61" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="17" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.6">
-      <c r="A62" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.6">
+      <c r="A63" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.6">
+      <c r="A64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="18">
-        <v>20</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="29.15">
-      <c r="A63" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.6">
-      <c r="A64" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="19">
-        <v>30</v>
-      </c>
-      <c r="D64" s="17" t="s">
+      <c r="C64" s="11">
+        <v>100</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.6">
       <c r="A65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="11">
+        <v>100</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.6">
       <c r="A66" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.6">
       <c r="A67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14.6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="11">
+        <v>100</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.6">
       <c r="A69" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18" t="s">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="14.6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="18.45">
-      <c r="A72" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
+      <c r="A71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="11">
+        <v>200</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.6">
+      <c r="A72" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="11">
+        <v>100</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="14.6">
-      <c r="A73" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="A73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="11">
+        <v>100</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="14.6">
-      <c r="A74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>7</v>
+      <c r="A74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="11">
+        <v>100</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.6">
       <c r="A75" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="11">
+        <v>100</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.6">
       <c r="A76" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.6">
       <c r="A77" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18" t="s">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.6">
       <c r="A78" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="18">
-        <v>100</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.6">
       <c r="A79" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="18">
-        <v>100</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.6">
       <c r="A80" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>9</v>
+      <c r="D80" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.6">
       <c r="A81" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.6">
       <c r="A82" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="18">
-        <v>100</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.6">
       <c r="A83" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.6">
       <c r="A84" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.6">
       <c r="A85" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="18">
-        <v>200</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.6">
-      <c r="A86" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="18">
-        <v>100</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="14.6">
-      <c r="A87" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="18">
-        <v>100</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="14.6">
-      <c r="A88" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="18">
-        <v>100</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.6">
-      <c r="A89" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="18">
-        <v>100</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="18.45">
+      <c r="A88" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" ht="13.2" customHeight="1">
+      <c r="A89" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:5" ht="14.6">
-      <c r="A90" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>102</v>
+      <c r="A90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.6">
       <c r="A91" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>26</v>
+        <v>189</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.6">
       <c r="A92" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="11">
+        <v>50</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.6">
       <c r="A93" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.6">
       <c r="A94" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.6">
       <c r="A95" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.6">
       <c r="A96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.6">
       <c r="A97" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.6">
       <c r="A98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.6">
-      <c r="A99" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" ht="14.6">
       <c r="A100" s="1"/>
@@ -2587,106 +2778,110 @@
       <c r="D100" s="1"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" ht="14.6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" ht="18.45">
-      <c r="A102" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="103" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A103" s="31" t="s">
+    <row r="101" spans="1:5" ht="18.45">
+      <c r="A101" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" ht="14.6">
+      <c r="A102" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" ht="14.6">
+      <c r="A103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="14.6">
-      <c r="A104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>7</v>
+      <c r="A104" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.6">
       <c r="A105" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B105" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.6">
       <c r="A106" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="18">
-        <v>50</v>
-      </c>
-      <c r="D106" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="14.6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="29.15">
       <c r="A107" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.6">
       <c r="A108" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -2697,11 +2892,11 @@
       <c r="A109" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E109" s="7" t="s">
@@ -2712,11 +2907,11 @@
       <c r="A110" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E110" s="7" t="s">
@@ -2727,11 +2922,11 @@
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -2742,11 +2937,11 @@
       <c r="A112" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -2768,22 +2963,22 @@
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="18.45">
-      <c r="A115" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="29"/>
+      <c r="A115" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
     </row>
     <row r="116" spans="1:5" ht="14.6">
-      <c r="A116" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
+      <c r="A116" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" spans="1:5" ht="14.6">
       <c r="A117" s="3" t="s">
@@ -2804,73 +2999,81 @@
     </row>
     <row r="118" spans="1:5" ht="14.6">
       <c r="A118" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="11">
+        <v>50</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.6">
       <c r="A119" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="11">
+        <v>50</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.6">
       <c r="A120" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="11">
+        <v>100</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="29.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14.6">
       <c r="A121" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.6">
       <c r="A122" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -2881,11 +3084,11 @@
       <c r="A123" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18" t="s">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E123" s="7" t="s">
@@ -2896,11 +3099,11 @@
       <c r="A124" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E124" s="7" t="s">
@@ -2911,11 +3114,11 @@
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -2926,11 +3129,11 @@
       <c r="A126" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18" t="s">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -2952,22 +3155,22 @@
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="18.45">
-      <c r="A129" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="29"/>
+      <c r="A129" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
     </row>
     <row r="130" spans="1:5" ht="14.6">
-      <c r="A130" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
+      <c r="A130" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" spans="1:5" ht="14.6">
       <c r="A131" s="3" t="s">
@@ -2988,81 +3191,75 @@
     </row>
     <row r="132" spans="1:5" ht="14.6">
       <c r="A132" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="18">
-        <v>50</v>
-      </c>
-      <c r="D132" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.6">
       <c r="A133" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="18">
-        <v>50</v>
-      </c>
-      <c r="D133" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="14.6">
       <c r="A134" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="18">
-        <v>100</v>
-      </c>
-      <c r="D134" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="14.6">
       <c r="A135" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B135" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="14.6">
       <c r="A136" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="7" t="s">
@@ -3073,11 +3270,11 @@
       <c r="A137" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -3088,11 +3285,11 @@
       <c r="A138" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -3103,11 +3300,11 @@
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18" t="s">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -3118,11 +3315,11 @@
       <c r="A140" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="7" t="s">
@@ -3144,22 +3341,22 @@
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="18.45">
-      <c r="A143" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="29"/>
+      <c r="A143" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5" ht="14.6">
-      <c r="A144" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28"/>
+      <c r="A144" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
     </row>
     <row r="145" spans="1:5" ht="14.6">
       <c r="A145" s="3" t="s">
@@ -3180,320 +3377,310 @@
     </row>
     <row r="146" spans="1:5" ht="14.6">
       <c r="A146" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B146" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18" t="s">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="14.6">
       <c r="A147" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B147" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="14.6">
       <c r="A148" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="14.6">
       <c r="A149" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="14.6">
       <c r="A150" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="14.6">
       <c r="A151" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="14.6">
       <c r="A152" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="14.6">
-      <c r="A153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="12.45">
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" ht="12.45">
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" ht="18.45">
+      <c r="A155" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="21"/>
+    </row>
+    <row r="156" spans="1:5" ht="14.6">
+      <c r="A156" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+    </row>
+    <row r="157" spans="1:5" ht="14.6">
+      <c r="A157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="14.6">
+      <c r="A158" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="14.6">
-      <c r="A154" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="14.6">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" ht="14.6">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="18.45">
-      <c r="A157" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="29"/>
-    </row>
-    <row r="158" spans="1:5" ht="14.6">
-      <c r="A158" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="159" spans="1:5" ht="14.6">
-      <c r="A159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>7</v>
+      <c r="A159" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="14.6">
       <c r="A160" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B160" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="14.6">
       <c r="A161" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B161" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18" t="s">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="14.6">
       <c r="A162" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="14.6">
       <c r="A163" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.6">
       <c r="A164" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B164" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18" t="s">
-        <v>26</v>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="14.6">
       <c r="A165" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18" t="s">
-        <v>26</v>
+        <v>151</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="14.6">
       <c r="A166" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18" t="s">
-        <v>26</v>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="12.45">
-      <c r="E167" s="20"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="12.45">
-      <c r="E168" s="20"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="1:5" ht="18.45">
-      <c r="A169" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="29"/>
+      <c r="A169" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="21"/>
     </row>
     <row r="170" spans="1:5" ht="14.6">
-      <c r="A170" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
+      <c r="A170" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
     </row>
     <row r="171" spans="1:5" ht="14.6">
       <c r="A171" s="3" t="s">
@@ -3514,399 +3701,411 @@
     </row>
     <row r="172" spans="1:5" ht="14.6">
       <c r="A172" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="11">
+        <v>100</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="14.6">
       <c r="A173" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18" t="s">
-        <v>9</v>
+        <v>159</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="11">
+        <v>100</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="14.6">
       <c r="A174" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="11">
+        <v>15</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="14.6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="29.15">
       <c r="A175" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B175" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="14.6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="24.9">
       <c r="A176" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="14.6">
       <c r="A177" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="11">
+        <v>50</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="14.6">
-      <c r="A178" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>153</v>
+      <c r="A178" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="11">
+        <v>50</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="14.6">
       <c r="A179" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B179" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="11">
+        <v>50</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.6">
+      <c r="A180" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="43.75">
+      <c r="A181" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="14.6">
-      <c r="A180" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="18" t="s">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="14.6">
+      <c r="A182" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="14.6">
+      <c r="A183" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="12.45">
-      <c r="E181" s="20"/>
-    </row>
-    <row r="182" spans="1:5" ht="12.45">
-      <c r="E182" s="20"/>
-    </row>
-    <row r="183" spans="1:5" ht="18.45">
-      <c r="A183" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="29"/>
-    </row>
-    <row r="184" spans="1:5" ht="14.6">
-      <c r="A184" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-    </row>
-    <row r="185" spans="1:5" ht="14.6">
-      <c r="A185" s="3" t="s">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="12.45">
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" ht="12.45">
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" ht="18.45">
+      <c r="A186" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="21"/>
+    </row>
+    <row r="187" spans="1:5" ht="14.6">
+      <c r="A187" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+    </row>
+    <row r="188" spans="1:5" ht="14.6">
+      <c r="A188" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B188" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C188" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D188" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.6">
-      <c r="A186" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B186" s="18" t="s">
+    <row r="189" spans="1:5" ht="14.6">
+      <c r="A189" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="14.6">
+      <c r="A190" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C190" s="11">
         <v>100</v>
       </c>
-      <c r="D186" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="14.6">
-      <c r="A187" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="18">
-        <v>100</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="14.6">
-      <c r="A188" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B188" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="18">
-        <v>15</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="29.15">
-      <c r="A189" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="24.9">
-      <c r="A190" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B190" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="21" t="s">
-        <v>168</v>
+      <c r="D190" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="14.6">
       <c r="A191" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B191" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C191" s="18">
-        <v>50</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>170</v>
+      <c r="C191" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="14.6">
-      <c r="A192" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" s="18">
-        <v>50</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="21" t="s">
-        <v>170</v>
+      <c r="A192" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="14.6">
-      <c r="A193" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="18">
-        <v>50</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="14.6">
-      <c r="A194" s="9" t="s">
+      <c r="A193" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B193" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="22" t="s">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="43.75">
+    <row r="194" spans="1:5" ht="43.75">
+      <c r="A194" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="14.6">
       <c r="A195" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="14.6">
       <c r="A196" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="14.6">
       <c r="A197" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="12.45">
-      <c r="E198" s="20"/>
-    </row>
-    <row r="199" spans="1:5" ht="12.45">
-      <c r="E199" s="20"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="14.6">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" ht="14.6">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="10"/>
     </row>
     <row r="200" spans="1:5" ht="18.45">
-      <c r="A200" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="29"/>
+      <c r="A200" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="21"/>
     </row>
     <row r="201" spans="1:5" ht="14.6">
-      <c r="A201" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
+      <c r="A201" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
     </row>
     <row r="202" spans="1:5" ht="14.6">
       <c r="A202" s="3" t="s">
@@ -3927,2703 +4126,2885 @@
     </row>
     <row r="203" spans="1:5" ht="14.6">
       <c r="A203" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B203" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18" t="s">
+      <c r="C203" s="11"/>
+      <c r="D203" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="14.6">
       <c r="A204" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B204" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C204" s="18">
-        <v>100</v>
-      </c>
-      <c r="D204" s="18" t="s">
+      <c r="C204" s="11">
+        <v>50</v>
+      </c>
+      <c r="D204" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="14.6">
       <c r="A205" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="14.6">
       <c r="A206" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B206" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18" t="s">
+      <c r="C206" s="11"/>
+      <c r="D206" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="14.6">
-      <c r="A207" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B207" s="18" t="s">
+      <c r="A207" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18" t="s">
+      <c r="C207" s="11"/>
+      <c r="D207" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="43.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="14.6">
       <c r="A208" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B208" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18" t="s">
+      <c r="C208" s="11"/>
+      <c r="D208" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="14.6">
       <c r="A209" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="12.45">
+      <c r="E210" s="12"/>
+    </row>
+    <row r="211" spans="1:5" ht="17.600000000000001">
+      <c r="A211" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+    </row>
+    <row r="212" spans="1:5" ht="12.45">
+      <c r="A212" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+    </row>
+    <row r="213" spans="1:5" ht="14.15">
+      <c r="A213" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="12.45">
+      <c r="A214" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="14.15">
+      <c r="A215" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="29">
+        <v>100</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="14.15">
+      <c r="A216" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B216" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="12.45">
+      <c r="A217" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E217" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="12.45">
+      <c r="A218" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E218" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="12.45">
+      <c r="A219" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B219" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E209" s="7" t="s">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="14.6">
-      <c r="A210" s="6" t="s">
+    <row r="220" spans="1:5" ht="12.45">
+      <c r="A220" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B220" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E220" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="12.45">
+      <c r="A221" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B221" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="12.45">
+      <c r="A222" s="30"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="30"/>
+      <c r="E222" s="30"/>
+    </row>
+    <row r="223" spans="1:5" ht="12.45">
+      <c r="A223" s="30"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
+    </row>
+    <row r="224" spans="1:5" ht="17.600000000000001">
+      <c r="A224" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="31"/>
+    </row>
+    <row r="225" spans="1:5" ht="12.45">
+      <c r="A225" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+    </row>
+    <row r="226" spans="1:5" ht="14.15">
+      <c r="A226" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="12.45">
+      <c r="A227" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="14.6">
-      <c r="A211" s="6" t="s">
+      <c r="C227" s="29"/>
+      <c r="D227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14.15">
+      <c r="A228" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B228" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="29">
+        <v>100</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14.15">
+      <c r="A229" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="12.45">
+      <c r="A230" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="12.45">
+      <c r="A231" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="12.45">
+      <c r="A232" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="12.45">
+      <c r="A233" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="12.45">
+      <c r="A234" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B234" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="7" t="s">
+      <c r="C234" s="29"/>
+      <c r="D234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="14.6">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5" ht="14.6">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="10"/>
-    </row>
-    <row r="214" spans="1:5" ht="18.45">
-      <c r="A214" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="29"/>
-    </row>
-    <row r="215" spans="1:5" ht="14.6">
-      <c r="A215" s="30" t="s">
+    <row r="235" spans="1:5" ht="12.45">
+      <c r="A235" s="30"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+    </row>
+    <row r="236" spans="1:5" ht="12.45">
+      <c r="A236" s="30"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+    </row>
+    <row r="237" spans="1:5" ht="17.600000000000001">
+      <c r="A237" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="31"/>
+    </row>
+    <row r="238" spans="1:5" ht="12.45">
+      <c r="A238" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+    </row>
+    <row r="239" spans="1:5" ht="14.15">
+      <c r="A239" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="12.45">
+      <c r="A240" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-    </row>
-    <row r="216" spans="1:5" ht="14.6">
-      <c r="A216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="14.6">
-      <c r="A217" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B217" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="14.6">
-      <c r="A218" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B218" s="18" t="s">
+    </row>
+    <row r="241" spans="1:5" ht="14.15">
+      <c r="A241" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B241" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C218" s="18">
-        <v>50</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="14.6">
-      <c r="A219" s="6" t="s">
+      <c r="C241" s="29">
+        <v>100</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="14.15">
+      <c r="A242" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="12.45">
+      <c r="A243" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B243" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E219" s="7" t="s">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="14.6">
-      <c r="A220" s="6" t="s">
+    <row r="244" spans="1:5" ht="12.45">
+      <c r="A244" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B220" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E220" s="7" t="s">
+      <c r="B244" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C244" s="29"/>
+      <c r="D244" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E244" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="14.6">
-      <c r="A221" s="6" t="s">
+    <row r="245" spans="1:5" ht="12.45">
+      <c r="A245" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B245" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E221" s="7" t="s">
+      <c r="C245" s="29"/>
+      <c r="D245" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.6">
-      <c r="A222" s="6" t="s">
+    <row r="246" spans="1:5" ht="12.45">
+      <c r="A246" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B222" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E222" s="7" t="s">
+      <c r="B246" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="14.6">
-      <c r="A223" s="6" t="s">
+    <row r="247" spans="1:5" ht="12.45">
+      <c r="A247" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B247" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="7" t="s">
+      <c r="C247" s="29"/>
+      <c r="D247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="12.45">
-      <c r="E224" s="20"/>
-    </row>
-    <row r="225" spans="5:5" ht="12.45">
-      <c r="E225" s="20"/>
-    </row>
-    <row r="226" spans="5:5" ht="12.45">
-      <c r="E226" s="20"/>
-    </row>
-    <row r="227" spans="5:5" ht="12.45">
-      <c r="E227" s="20"/>
-    </row>
-    <row r="228" spans="5:5" ht="12.45">
-      <c r="E228" s="20"/>
-    </row>
-    <row r="229" spans="5:5" ht="12.45">
-      <c r="E229" s="20"/>
-    </row>
-    <row r="230" spans="5:5" ht="12.45">
-      <c r="E230" s="20"/>
-    </row>
-    <row r="231" spans="5:5" ht="12.45">
-      <c r="E231" s="20"/>
-    </row>
-    <row r="232" spans="5:5" ht="12.45">
-      <c r="E232" s="20"/>
-    </row>
-    <row r="233" spans="5:5" ht="12.45">
-      <c r="E233" s="20"/>
-    </row>
-    <row r="234" spans="5:5" ht="12.45">
-      <c r="E234" s="20"/>
-    </row>
-    <row r="235" spans="5:5" ht="12.45">
-      <c r="E235" s="20"/>
-    </row>
-    <row r="236" spans="5:5" ht="12.45">
-      <c r="E236" s="20"/>
-    </row>
-    <row r="237" spans="5:5" ht="12.45">
-      <c r="E237" s="20"/>
-    </row>
-    <row r="238" spans="5:5" ht="12.45">
-      <c r="E238" s="20"/>
-    </row>
-    <row r="239" spans="5:5" ht="12.45">
-      <c r="E239" s="20"/>
-    </row>
-    <row r="240" spans="5:5" ht="12.45">
-      <c r="E240" s="20"/>
-    </row>
-    <row r="241" spans="5:5" ht="12.45">
-      <c r="E241" s="20"/>
-    </row>
-    <row r="242" spans="5:5" ht="12.45">
-      <c r="E242" s="20"/>
-    </row>
-    <row r="243" spans="5:5" ht="12.45">
-      <c r="E243" s="20"/>
-    </row>
-    <row r="244" spans="5:5" ht="12.45">
-      <c r="E244" s="20"/>
-    </row>
-    <row r="245" spans="5:5" ht="12.45">
-      <c r="E245" s="20"/>
-    </row>
-    <row r="246" spans="5:5" ht="12.45">
-      <c r="E246" s="20"/>
-    </row>
-    <row r="247" spans="5:5" ht="12.45">
-      <c r="E247" s="20"/>
-    </row>
-    <row r="248" spans="5:5" ht="12.45">
-      <c r="E248" s="20"/>
-    </row>
-    <row r="249" spans="5:5" ht="12.45">
-      <c r="E249" s="20"/>
-    </row>
-    <row r="250" spans="5:5" ht="12.45">
-      <c r="E250" s="20"/>
-    </row>
-    <row r="251" spans="5:5" ht="12.45">
-      <c r="E251" s="20"/>
-    </row>
-    <row r="252" spans="5:5" ht="12.45">
-      <c r="E252" s="20"/>
-    </row>
-    <row r="253" spans="5:5" ht="12.45">
-      <c r="E253" s="20"/>
-    </row>
-    <row r="254" spans="5:5" ht="12.45">
-      <c r="E254" s="20"/>
-    </row>
-    <row r="255" spans="5:5" ht="12.45">
-      <c r="E255" s="20"/>
-    </row>
-    <row r="256" spans="5:5" ht="12.45">
-      <c r="E256" s="20"/>
+    <row r="248" spans="1:5" ht="12.45">
+      <c r="A248" s="30"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="30"/>
+    </row>
+    <row r="249" spans="1:5" ht="12.45">
+      <c r="A249" s="30"/>
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="30"/>
+    </row>
+    <row r="250" spans="1:5" ht="12.45">
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5" ht="12.45">
+      <c r="E251" s="12"/>
+    </row>
+    <row r="252" spans="1:5" ht="12.45">
+      <c r="E252" s="12"/>
+    </row>
+    <row r="253" spans="1:5" ht="12.45">
+      <c r="E253" s="12"/>
+    </row>
+    <row r="254" spans="1:5" ht="12.45">
+      <c r="E254" s="12"/>
+    </row>
+    <row r="255" spans="1:5" ht="12.45">
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5" ht="12.45">
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="5:5" ht="12.45">
-      <c r="E257" s="20"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="5:5" ht="12.45">
-      <c r="E258" s="20"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="5:5" ht="12.45">
-      <c r="E259" s="20"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" spans="5:5" ht="12.45">
-      <c r="E260" s="20"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="5:5" ht="12.45">
-      <c r="E261" s="20"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="5:5" ht="12.45">
-      <c r="E262" s="20"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" spans="5:5" ht="12.45">
-      <c r="E263" s="20"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="5:5" ht="12.45">
-      <c r="E264" s="20"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" spans="5:5" ht="12.45">
-      <c r="E265" s="20"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="5:5" ht="12.45">
-      <c r="E266" s="20"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="5:5" ht="12.45">
-      <c r="E267" s="20"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" spans="5:5" ht="12.45">
-      <c r="E268" s="20"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" spans="5:5" ht="12.45">
-      <c r="E269" s="20"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="5:5" ht="12.45">
-      <c r="E270" s="20"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" spans="5:5" ht="12.45">
-      <c r="E271" s="20"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="5:5" ht="12.45">
-      <c r="E272" s="20"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="5:5" ht="12.45">
-      <c r="E273" s="20"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="5:5" ht="12.45">
-      <c r="E274" s="20"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" spans="5:5" ht="12.45">
-      <c r="E275" s="20"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="5:5" ht="12.45">
-      <c r="E276" s="20"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" spans="5:5" ht="12.45">
-      <c r="E277" s="20"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" spans="5:5" ht="12.45">
-      <c r="E278" s="20"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="5:5" ht="12.45">
-      <c r="E279" s="20"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" spans="5:5" ht="12.45">
-      <c r="E280" s="20"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" spans="5:5" ht="12.45">
-      <c r="E281" s="20"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="5:5" ht="12.45">
-      <c r="E282" s="20"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" spans="5:5" ht="12.45">
-      <c r="E283" s="20"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="5:5" ht="12.45">
-      <c r="E284" s="20"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="5:5" ht="12.45">
-      <c r="E285" s="20"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="5:5" ht="12.45">
-      <c r="E286" s="20"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="5:5" ht="12.45">
-      <c r="E287" s="20"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="5:5" ht="12.45">
-      <c r="E288" s="20"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" spans="5:5" ht="12.45">
-      <c r="E289" s="20"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" spans="5:5" ht="12.45">
-      <c r="E290" s="20"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="5:5" ht="12.45">
-      <c r="E291" s="20"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" spans="5:5" ht="12.45">
-      <c r="E292" s="20"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" spans="5:5" ht="12.45">
-      <c r="E293" s="20"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="5:5" ht="12.45">
-      <c r="E294" s="20"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" spans="5:5" ht="12.45">
-      <c r="E295" s="20"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" spans="5:5" ht="12.45">
-      <c r="E296" s="20"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="5:5" ht="12.45">
-      <c r="E297" s="20"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="5:5" ht="12.45">
-      <c r="E298" s="20"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" spans="5:5" ht="12.45">
-      <c r="E299" s="20"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="5:5" ht="12.45">
-      <c r="E300" s="20"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" spans="5:5" ht="12.45">
-      <c r="E301" s="20"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" spans="5:5" ht="12.45">
-      <c r="E302" s="20"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" spans="5:5" ht="12.45">
-      <c r="E303" s="20"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" spans="5:5" ht="12.45">
-      <c r="E304" s="20"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="5:5" ht="12.45">
-      <c r="E305" s="20"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" spans="5:5" ht="12.45">
-      <c r="E306" s="20"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" spans="5:5" ht="12.45">
-      <c r="E307" s="20"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" spans="5:5" ht="12.45">
-      <c r="E308" s="20"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" spans="5:5" ht="12.45">
-      <c r="E309" s="20"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" spans="5:5" ht="12.45">
-      <c r="E310" s="20"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="5:5" ht="12.45">
-      <c r="E311" s="20"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" spans="5:5" ht="12.45">
-      <c r="E312" s="20"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" spans="5:5" ht="12.45">
-      <c r="E313" s="20"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="5:5" ht="12.45">
-      <c r="E314" s="20"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" spans="5:5" ht="12.45">
-      <c r="E315" s="20"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" spans="5:5" ht="12.45">
-      <c r="E316" s="20"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" spans="5:5" ht="12.45">
-      <c r="E317" s="20"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="5:5" ht="12.45">
-      <c r="E318" s="20"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" spans="5:5" ht="12.45">
-      <c r="E319" s="20"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" spans="5:5" ht="12.45">
-      <c r="E320" s="20"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="5:5" ht="12.45">
-      <c r="E321" s="20"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" spans="5:5" ht="12.45">
-      <c r="E322" s="20"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" spans="5:5" ht="12.45">
-      <c r="E323" s="20"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" spans="5:5" ht="12.45">
-      <c r="E324" s="20"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" spans="5:5" ht="12.45">
-      <c r="E325" s="20"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" spans="5:5" ht="12.45">
-      <c r="E326" s="20"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" spans="5:5" ht="12.45">
-      <c r="E327" s="20"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" spans="5:5" ht="12.45">
-      <c r="E328" s="20"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" spans="5:5" ht="12.45">
-      <c r="E329" s="20"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" spans="5:5" ht="12.45">
-      <c r="E330" s="20"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="5:5" ht="12.45">
-      <c r="E331" s="20"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="5:5" ht="12.45">
-      <c r="E332" s="20"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="5:5" ht="12.45">
-      <c r="E333" s="20"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="5:5" ht="12.45">
-      <c r="E334" s="20"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="5:5" ht="12.45">
-      <c r="E335" s="20"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="5:5" ht="12.45">
-      <c r="E336" s="20"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" spans="5:5" ht="12.45">
-      <c r="E337" s="20"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" spans="5:5" ht="12.45">
-      <c r="E338" s="20"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="5:5" ht="12.45">
-      <c r="E339" s="20"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" spans="5:5" ht="12.45">
-      <c r="E340" s="20"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" spans="5:5" ht="12.45">
-      <c r="E341" s="20"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" spans="5:5" ht="12.45">
-      <c r="E342" s="20"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="5:5" ht="12.45">
-      <c r="E343" s="20"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" spans="5:5" ht="12.45">
-      <c r="E344" s="20"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="5:5" ht="12.45">
-      <c r="E345" s="20"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" spans="5:5" ht="12.45">
-      <c r="E346" s="20"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="5:5" ht="12.45">
-      <c r="E347" s="20"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" spans="5:5" ht="12.45">
-      <c r="E348" s="20"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" spans="5:5" ht="12.45">
-      <c r="E349" s="20"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" spans="5:5" ht="12.45">
-      <c r="E350" s="20"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" spans="5:5" ht="12.45">
-      <c r="E351" s="20"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" spans="5:5" ht="12.45">
-      <c r="E352" s="20"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" spans="5:5" ht="12.45">
-      <c r="E353" s="20"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" spans="5:5" ht="12.45">
-      <c r="E354" s="20"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" spans="5:5" ht="12.45">
-      <c r="E355" s="20"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" spans="5:5" ht="12.45">
-      <c r="E356" s="20"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" spans="5:5" ht="12.45">
-      <c r="E357" s="20"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" spans="5:5" ht="12.45">
-      <c r="E358" s="20"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" spans="5:5" ht="12.45">
-      <c r="E359" s="20"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" spans="5:5" ht="12.45">
-      <c r="E360" s="20"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" spans="5:5" ht="12.45">
-      <c r="E361" s="20"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" spans="5:5" ht="12.45">
-      <c r="E362" s="20"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" spans="5:5" ht="12.45">
-      <c r="E363" s="20"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" spans="5:5" ht="12.45">
-      <c r="E364" s="20"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" spans="5:5" ht="12.45">
-      <c r="E365" s="20"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="5:5" ht="12.45">
-      <c r="E366" s="20"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" spans="5:5" ht="12.45">
-      <c r="E367" s="20"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" spans="5:5" ht="12.45">
-      <c r="E368" s="20"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="5:5" ht="12.45">
-      <c r="E369" s="20"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" spans="5:5" ht="12.45">
-      <c r="E370" s="20"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" spans="5:5" ht="12.45">
-      <c r="E371" s="20"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" spans="5:5" ht="12.45">
-      <c r="E372" s="20"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" spans="5:5" ht="12.45">
-      <c r="E373" s="20"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" spans="5:5" ht="12.45">
-      <c r="E374" s="20"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" spans="5:5" ht="12.45">
-      <c r="E375" s="20"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="5:5" ht="12.45">
-      <c r="E376" s="20"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" spans="5:5" ht="12.45">
-      <c r="E377" s="20"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" spans="5:5" ht="12.45">
-      <c r="E378" s="20"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" spans="5:5" ht="12.45">
-      <c r="E379" s="20"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" spans="5:5" ht="12.45">
-      <c r="E380" s="20"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" spans="5:5" ht="12.45">
-      <c r="E381" s="20"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" spans="5:5" ht="12.45">
-      <c r="E382" s="20"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" spans="5:5" ht="12.45">
-      <c r="E383" s="20"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" spans="5:5" ht="12.45">
-      <c r="E384" s="20"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" spans="5:5" ht="12.45">
-      <c r="E385" s="20"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" spans="5:5" ht="12.45">
-      <c r="E386" s="20"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" spans="5:5" ht="12.45">
-      <c r="E387" s="20"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" spans="5:5" ht="12.45">
-      <c r="E388" s="20"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" spans="5:5" ht="12.45">
-      <c r="E389" s="20"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" spans="5:5" ht="12.45">
-      <c r="E390" s="20"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" spans="5:5" ht="12.45">
-      <c r="E391" s="20"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" spans="5:5" ht="12.45">
-      <c r="E392" s="20"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="5:5" ht="12.45">
-      <c r="E393" s="20"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" spans="5:5" ht="12.45">
-      <c r="E394" s="20"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" spans="5:5" ht="12.45">
-      <c r="E395" s="20"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" spans="5:5" ht="12.45">
-      <c r="E396" s="20"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" spans="5:5" ht="12.45">
-      <c r="E397" s="20"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" spans="5:5" ht="12.45">
-      <c r="E398" s="20"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" spans="5:5" ht="12.45">
-      <c r="E399" s="20"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" spans="5:5" ht="12.45">
-      <c r="E400" s="20"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" spans="5:5" ht="12.45">
-      <c r="E401" s="20"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" spans="5:5" ht="12.45">
-      <c r="E402" s="20"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" spans="5:5" ht="12.45">
-      <c r="E403" s="20"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" spans="5:5" ht="12.45">
-      <c r="E404" s="20"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" spans="5:5" ht="12.45">
-      <c r="E405" s="20"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" spans="5:5" ht="12.45">
-      <c r="E406" s="20"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" spans="5:5" ht="12.45">
-      <c r="E407" s="20"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" spans="5:5" ht="12.45">
-      <c r="E408" s="20"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="5:5" ht="12.45">
-      <c r="E409" s="20"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="5:5" ht="12.45">
-      <c r="E410" s="20"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="5:5" ht="12.45">
-      <c r="E411" s="20"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="5:5" ht="12.45">
-      <c r="E412" s="20"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="5:5" ht="12.45">
-      <c r="E413" s="20"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="5:5" ht="12.45">
-      <c r="E414" s="20"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="5:5" ht="12.45">
-      <c r="E415" s="20"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="5:5" ht="12.45">
-      <c r="E416" s="20"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="5:5" ht="12.45">
-      <c r="E417" s="20"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="5:5" ht="12.45">
-      <c r="E418" s="20"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="5:5" ht="12.45">
-      <c r="E419" s="20"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="5:5" ht="12.45">
-      <c r="E420" s="20"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="5:5" ht="12.45">
-      <c r="E421" s="20"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="5:5" ht="12.45">
-      <c r="E422" s="20"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="5:5" ht="12.45">
-      <c r="E423" s="20"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="5:5" ht="12.45">
-      <c r="E424" s="20"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="5:5" ht="12.45">
-      <c r="E425" s="20"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="5:5" ht="12.45">
-      <c r="E426" s="20"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="5:5" ht="12.45">
-      <c r="E427" s="20"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" spans="5:5" ht="12.45">
-      <c r="E428" s="20"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="5:5" ht="12.45">
-      <c r="E429" s="20"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="5:5" ht="12.45">
-      <c r="E430" s="20"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="5:5" ht="12.45">
-      <c r="E431" s="20"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="5:5" ht="12.45">
-      <c r="E432" s="20"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="5:5" ht="12.45">
-      <c r="E433" s="20"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="5:5" ht="12.45">
-      <c r="E434" s="20"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" spans="5:5" ht="12.45">
-      <c r="E435" s="20"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="5:5" ht="12.45">
-      <c r="E436" s="20"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" spans="5:5" ht="12.45">
-      <c r="E437" s="20"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" spans="5:5" ht="12.45">
-      <c r="E438" s="20"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" spans="5:5" ht="12.45">
-      <c r="E439" s="20"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" spans="5:5" ht="12.45">
-      <c r="E440" s="20"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" spans="5:5" ht="12.45">
-      <c r="E441" s="20"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" spans="5:5" ht="12.45">
-      <c r="E442" s="20"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" spans="5:5" ht="12.45">
-      <c r="E443" s="20"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" spans="5:5" ht="12.45">
-      <c r="E444" s="20"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" spans="5:5" ht="12.45">
-      <c r="E445" s="20"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" spans="5:5" ht="12.45">
-      <c r="E446" s="20"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="5:5" ht="12.45">
-      <c r="E447" s="20"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="5:5" ht="12.45">
-      <c r="E448" s="20"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="5:5" ht="12.45">
-      <c r="E449" s="20"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="5:5" ht="12.45">
-      <c r="E450" s="20"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="5:5" ht="12.45">
-      <c r="E451" s="20"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="5:5" ht="12.45">
-      <c r="E452" s="20"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="5:5" ht="12.45">
-      <c r="E453" s="20"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="5:5" ht="12.45">
-      <c r="E454" s="20"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" spans="5:5" ht="12.45">
-      <c r="E455" s="20"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" spans="5:5" ht="12.45">
-      <c r="E456" s="20"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" spans="5:5" ht="12.45">
-      <c r="E457" s="20"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" spans="5:5" ht="12.45">
-      <c r="E458" s="20"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" spans="5:5" ht="12.45">
-      <c r="E459" s="20"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" spans="5:5" ht="12.45">
-      <c r="E460" s="20"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" spans="5:5" ht="12.45">
-      <c r="E461" s="20"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" spans="5:5" ht="12.45">
-      <c r="E462" s="20"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" spans="5:5" ht="12.45">
-      <c r="E463" s="20"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" spans="5:5" ht="12.45">
-      <c r="E464" s="20"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" spans="5:5" ht="12.45">
-      <c r="E465" s="20"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" spans="5:5" ht="12.45">
-      <c r="E466" s="20"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" spans="5:5" ht="12.45">
-      <c r="E467" s="20"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" spans="5:5" ht="12.45">
-      <c r="E468" s="20"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" spans="5:5" ht="12.45">
-      <c r="E469" s="20"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" spans="5:5" ht="12.45">
-      <c r="E470" s="20"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" spans="5:5" ht="12.45">
-      <c r="E471" s="20"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" spans="5:5" ht="12.45">
-      <c r="E472" s="20"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" spans="5:5" ht="12.45">
-      <c r="E473" s="20"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" spans="5:5" ht="12.45">
-      <c r="E474" s="20"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" spans="5:5" ht="12.45">
-      <c r="E475" s="20"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" spans="5:5" ht="12.45">
-      <c r="E476" s="20"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" spans="5:5" ht="12.45">
-      <c r="E477" s="20"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" spans="5:5" ht="12.45">
-      <c r="E478" s="20"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" spans="5:5" ht="12.45">
-      <c r="E479" s="20"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" spans="5:5" ht="12.45">
-      <c r="E480" s="20"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" spans="5:5" ht="12.45">
-      <c r="E481" s="20"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" spans="5:5" ht="12.45">
-      <c r="E482" s="20"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" spans="5:5" ht="12.45">
-      <c r="E483" s="20"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" spans="5:5" ht="12.45">
-      <c r="E484" s="20"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" spans="5:5" ht="12.45">
-      <c r="E485" s="20"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" spans="5:5" ht="12.45">
-      <c r="E486" s="20"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" spans="5:5" ht="12.45">
-      <c r="E487" s="20"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" spans="5:5" ht="12.45">
-      <c r="E488" s="20"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" spans="5:5" ht="12.45">
-      <c r="E489" s="20"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" spans="5:5" ht="12.45">
-      <c r="E490" s="20"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" spans="5:5" ht="12.45">
-      <c r="E491" s="20"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" spans="5:5" ht="12.45">
-      <c r="E492" s="20"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" spans="5:5" ht="12.45">
-      <c r="E493" s="20"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" spans="5:5" ht="12.45">
-      <c r="E494" s="20"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" spans="5:5" ht="12.45">
-      <c r="E495" s="20"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" spans="5:5" ht="12.45">
-      <c r="E496" s="20"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" spans="5:5" ht="12.45">
-      <c r="E497" s="20"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" spans="5:5" ht="12.45">
-      <c r="E498" s="20"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" spans="5:5" ht="12.45">
-      <c r="E499" s="20"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" spans="5:5" ht="12.45">
-      <c r="E500" s="20"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" spans="5:5" ht="12.45">
-      <c r="E501" s="20"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" spans="5:5" ht="12.45">
-      <c r="E502" s="20"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" spans="5:5" ht="12.45">
-      <c r="E503" s="20"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" spans="5:5" ht="12.45">
-      <c r="E504" s="20"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" spans="5:5" ht="12.45">
-      <c r="E505" s="20"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" spans="5:5" ht="12.45">
-      <c r="E506" s="20"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" spans="5:5" ht="12.45">
-      <c r="E507" s="20"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" spans="5:5" ht="12.45">
-      <c r="E508" s="20"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" spans="5:5" ht="12.45">
-      <c r="E509" s="20"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" spans="5:5" ht="12.45">
-      <c r="E510" s="20"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" spans="5:5" ht="12.45">
-      <c r="E511" s="20"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" spans="5:5" ht="12.45">
-      <c r="E512" s="20"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" spans="5:5" ht="12.45">
-      <c r="E513" s="20"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" spans="5:5" ht="12.45">
-      <c r="E514" s="20"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" spans="5:5" ht="12.45">
-      <c r="E515" s="20"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" spans="5:5" ht="12.45">
-      <c r="E516" s="20"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" spans="5:5" ht="12.45">
-      <c r="E517" s="20"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" spans="5:5" ht="12.45">
-      <c r="E518" s="20"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" spans="5:5" ht="12.45">
-      <c r="E519" s="20"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" spans="5:5" ht="12.45">
-      <c r="E520" s="20"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" spans="5:5" ht="12.45">
-      <c r="E521" s="20"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" spans="5:5" ht="12.45">
-      <c r="E522" s="20"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" spans="5:5" ht="12.45">
-      <c r="E523" s="20"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" spans="5:5" ht="12.45">
-      <c r="E524" s="20"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" spans="5:5" ht="12.45">
-      <c r="E525" s="20"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" spans="5:5" ht="12.45">
-      <c r="E526" s="20"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" spans="5:5" ht="12.45">
-      <c r="E527" s="20"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" spans="5:5" ht="12.45">
-      <c r="E528" s="20"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" spans="5:5" ht="12.45">
-      <c r="E529" s="20"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" spans="5:5" ht="12.45">
-      <c r="E530" s="20"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" spans="5:5" ht="12.45">
-      <c r="E531" s="20"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" spans="5:5" ht="12.45">
-      <c r="E532" s="20"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" spans="5:5" ht="12.45">
-      <c r="E533" s="20"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" spans="5:5" ht="12.45">
-      <c r="E534" s="20"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" spans="5:5" ht="12.45">
-      <c r="E535" s="20"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" spans="5:5" ht="12.45">
-      <c r="E536" s="20"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" spans="5:5" ht="12.45">
-      <c r="E537" s="20"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" spans="5:5" ht="12.45">
-      <c r="E538" s="20"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" spans="5:5" ht="12.45">
-      <c r="E539" s="20"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" spans="5:5" ht="12.45">
-      <c r="E540" s="20"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" spans="5:5" ht="12.45">
-      <c r="E541" s="20"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" spans="5:5" ht="12.45">
-      <c r="E542" s="20"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" spans="5:5" ht="12.45">
-      <c r="E543" s="20"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" spans="5:5" ht="12.45">
-      <c r="E544" s="20"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" spans="5:5" ht="12.45">
-      <c r="E545" s="20"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" spans="5:5" ht="12.45">
-      <c r="E546" s="20"/>
+      <c r="E546" s="12"/>
     </row>
     <row r="547" spans="5:5" ht="12.45">
-      <c r="E547" s="20"/>
+      <c r="E547" s="12"/>
     </row>
     <row r="548" spans="5:5" ht="12.45">
-      <c r="E548" s="20"/>
+      <c r="E548" s="12"/>
     </row>
     <row r="549" spans="5:5" ht="12.45">
-      <c r="E549" s="20"/>
+      <c r="E549" s="12"/>
     </row>
     <row r="550" spans="5:5" ht="12.45">
-      <c r="E550" s="20"/>
+      <c r="E550" s="12"/>
     </row>
     <row r="551" spans="5:5" ht="12.45">
-      <c r="E551" s="20"/>
+      <c r="E551" s="12"/>
     </row>
     <row r="552" spans="5:5" ht="12.45">
-      <c r="E552" s="20"/>
+      <c r="E552" s="12"/>
     </row>
     <row r="553" spans="5:5" ht="12.45">
-      <c r="E553" s="20"/>
+      <c r="E553" s="12"/>
     </row>
     <row r="554" spans="5:5" ht="12.45">
-      <c r="E554" s="20"/>
+      <c r="E554" s="12"/>
     </row>
     <row r="555" spans="5:5" ht="12.45">
-      <c r="E555" s="20"/>
+      <c r="E555" s="12"/>
     </row>
     <row r="556" spans="5:5" ht="12.45">
-      <c r="E556" s="20"/>
+      <c r="E556" s="12"/>
     </row>
     <row r="557" spans="5:5" ht="12.45">
-      <c r="E557" s="20"/>
+      <c r="E557" s="12"/>
     </row>
     <row r="558" spans="5:5" ht="12.45">
-      <c r="E558" s="20"/>
+      <c r="E558" s="12"/>
     </row>
     <row r="559" spans="5:5" ht="12.45">
-      <c r="E559" s="20"/>
+      <c r="E559" s="12"/>
     </row>
     <row r="560" spans="5:5" ht="12.45">
-      <c r="E560" s="20"/>
+      <c r="E560" s="12"/>
     </row>
     <row r="561" spans="5:5" ht="12.45">
-      <c r="E561" s="20"/>
+      <c r="E561" s="12"/>
     </row>
     <row r="562" spans="5:5" ht="12.45">
-      <c r="E562" s="20"/>
+      <c r="E562" s="12"/>
     </row>
     <row r="563" spans="5:5" ht="12.45">
-      <c r="E563" s="20"/>
+      <c r="E563" s="12"/>
     </row>
     <row r="564" spans="5:5" ht="12.45">
-      <c r="E564" s="20"/>
+      <c r="E564" s="12"/>
     </row>
     <row r="565" spans="5:5" ht="12.45">
-      <c r="E565" s="20"/>
+      <c r="E565" s="12"/>
     </row>
     <row r="566" spans="5:5" ht="12.45">
-      <c r="E566" s="20"/>
+      <c r="E566" s="12"/>
     </row>
     <row r="567" spans="5:5" ht="12.45">
-      <c r="E567" s="20"/>
+      <c r="E567" s="12"/>
     </row>
     <row r="568" spans="5:5" ht="12.45">
-      <c r="E568" s="20"/>
+      <c r="E568" s="12"/>
     </row>
     <row r="569" spans="5:5" ht="12.45">
-      <c r="E569" s="20"/>
+      <c r="E569" s="12"/>
     </row>
     <row r="570" spans="5:5" ht="12.45">
-      <c r="E570" s="20"/>
+      <c r="E570" s="12"/>
     </row>
     <row r="571" spans="5:5" ht="12.45">
-      <c r="E571" s="20"/>
+      <c r="E571" s="12"/>
     </row>
     <row r="572" spans="5:5" ht="12.45">
-      <c r="E572" s="20"/>
+      <c r="E572" s="12"/>
     </row>
     <row r="573" spans="5:5" ht="12.45">
-      <c r="E573" s="20"/>
+      <c r="E573" s="12"/>
     </row>
     <row r="574" spans="5:5" ht="12.45">
-      <c r="E574" s="20"/>
+      <c r="E574" s="12"/>
     </row>
     <row r="575" spans="5:5" ht="12.45">
-      <c r="E575" s="20"/>
+      <c r="E575" s="12"/>
     </row>
     <row r="576" spans="5:5" ht="12.45">
-      <c r="E576" s="20"/>
+      <c r="E576" s="12"/>
     </row>
     <row r="577" spans="5:5" ht="12.45">
-      <c r="E577" s="20"/>
+      <c r="E577" s="12"/>
     </row>
     <row r="578" spans="5:5" ht="12.45">
-      <c r="E578" s="20"/>
+      <c r="E578" s="12"/>
     </row>
     <row r="579" spans="5:5" ht="12.45">
-      <c r="E579" s="20"/>
+      <c r="E579" s="12"/>
     </row>
     <row r="580" spans="5:5" ht="12.45">
-      <c r="E580" s="20"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" spans="5:5" ht="12.45">
-      <c r="E581" s="20"/>
+      <c r="E581" s="12"/>
     </row>
     <row r="582" spans="5:5" ht="12.45">
-      <c r="E582" s="20"/>
+      <c r="E582" s="12"/>
     </row>
     <row r="583" spans="5:5" ht="12.45">
-      <c r="E583" s="20"/>
+      <c r="E583" s="12"/>
     </row>
     <row r="584" spans="5:5" ht="12.45">
-      <c r="E584" s="20"/>
+      <c r="E584" s="12"/>
     </row>
     <row r="585" spans="5:5" ht="12.45">
-      <c r="E585" s="20"/>
+      <c r="E585" s="12"/>
     </row>
     <row r="586" spans="5:5" ht="12.45">
-      <c r="E586" s="20"/>
+      <c r="E586" s="12"/>
     </row>
     <row r="587" spans="5:5" ht="12.45">
-      <c r="E587" s="20"/>
+      <c r="E587" s="12"/>
     </row>
     <row r="588" spans="5:5" ht="12.45">
-      <c r="E588" s="20"/>
+      <c r="E588" s="12"/>
     </row>
     <row r="589" spans="5:5" ht="12.45">
-      <c r="E589" s="20"/>
+      <c r="E589" s="12"/>
     </row>
     <row r="590" spans="5:5" ht="12.45">
-      <c r="E590" s="20"/>
+      <c r="E590" s="12"/>
     </row>
     <row r="591" spans="5:5" ht="12.45">
-      <c r="E591" s="20"/>
+      <c r="E591" s="12"/>
     </row>
     <row r="592" spans="5:5" ht="12.45">
-      <c r="E592" s="20"/>
+      <c r="E592" s="12"/>
     </row>
     <row r="593" spans="5:5" ht="12.45">
-      <c r="E593" s="20"/>
+      <c r="E593" s="12"/>
     </row>
     <row r="594" spans="5:5" ht="12.45">
-      <c r="E594" s="20"/>
+      <c r="E594" s="12"/>
     </row>
     <row r="595" spans="5:5" ht="12.45">
-      <c r="E595" s="20"/>
+      <c r="E595" s="12"/>
     </row>
     <row r="596" spans="5:5" ht="12.45">
-      <c r="E596" s="20"/>
+      <c r="E596" s="12"/>
     </row>
     <row r="597" spans="5:5" ht="12.45">
-      <c r="E597" s="20"/>
+      <c r="E597" s="12"/>
     </row>
     <row r="598" spans="5:5" ht="12.45">
-      <c r="E598" s="20"/>
+      <c r="E598" s="12"/>
     </row>
     <row r="599" spans="5:5" ht="12.45">
-      <c r="E599" s="20"/>
+      <c r="E599" s="12"/>
     </row>
     <row r="600" spans="5:5" ht="12.45">
-      <c r="E600" s="20"/>
+      <c r="E600" s="12"/>
     </row>
     <row r="601" spans="5:5" ht="12.45">
-      <c r="E601" s="20"/>
+      <c r="E601" s="12"/>
     </row>
     <row r="602" spans="5:5" ht="12.45">
-      <c r="E602" s="20"/>
+      <c r="E602" s="12"/>
     </row>
     <row r="603" spans="5:5" ht="12.45">
-      <c r="E603" s="20"/>
+      <c r="E603" s="12"/>
     </row>
     <row r="604" spans="5:5" ht="12.45">
-      <c r="E604" s="20"/>
+      <c r="E604" s="12"/>
     </row>
     <row r="605" spans="5:5" ht="12.45">
-      <c r="E605" s="20"/>
+      <c r="E605" s="12"/>
     </row>
     <row r="606" spans="5:5" ht="12.45">
-      <c r="E606" s="20"/>
+      <c r="E606" s="12"/>
     </row>
     <row r="607" spans="5:5" ht="12.45">
-      <c r="E607" s="20"/>
+      <c r="E607" s="12"/>
     </row>
     <row r="608" spans="5:5" ht="12.45">
-      <c r="E608" s="20"/>
+      <c r="E608" s="12"/>
     </row>
     <row r="609" spans="5:5" ht="12.45">
-      <c r="E609" s="20"/>
+      <c r="E609" s="12"/>
     </row>
     <row r="610" spans="5:5" ht="12.45">
-      <c r="E610" s="20"/>
+      <c r="E610" s="12"/>
     </row>
     <row r="611" spans="5:5" ht="12.45">
-      <c r="E611" s="20"/>
+      <c r="E611" s="12"/>
     </row>
     <row r="612" spans="5:5" ht="12.45">
-      <c r="E612" s="20"/>
+      <c r="E612" s="12"/>
     </row>
     <row r="613" spans="5:5" ht="12.45">
-      <c r="E613" s="20"/>
+      <c r="E613" s="12"/>
     </row>
     <row r="614" spans="5:5" ht="12.45">
-      <c r="E614" s="20"/>
+      <c r="E614" s="12"/>
     </row>
     <row r="615" spans="5:5" ht="12.45">
-      <c r="E615" s="20"/>
+      <c r="E615" s="12"/>
     </row>
     <row r="616" spans="5:5" ht="12.45">
-      <c r="E616" s="20"/>
+      <c r="E616" s="12"/>
     </row>
     <row r="617" spans="5:5" ht="12.45">
-      <c r="E617" s="20"/>
+      <c r="E617" s="12"/>
     </row>
     <row r="618" spans="5:5" ht="12.45">
-      <c r="E618" s="20"/>
+      <c r="E618" s="12"/>
     </row>
     <row r="619" spans="5:5" ht="12.45">
-      <c r="E619" s="20"/>
+      <c r="E619" s="12"/>
     </row>
     <row r="620" spans="5:5" ht="12.45">
-      <c r="E620" s="20"/>
+      <c r="E620" s="12"/>
     </row>
     <row r="621" spans="5:5" ht="12.45">
-      <c r="E621" s="20"/>
+      <c r="E621" s="12"/>
     </row>
     <row r="622" spans="5:5" ht="12.45">
-      <c r="E622" s="20"/>
+      <c r="E622" s="12"/>
     </row>
     <row r="623" spans="5:5" ht="12.45">
-      <c r="E623" s="20"/>
+      <c r="E623" s="12"/>
     </row>
     <row r="624" spans="5:5" ht="12.45">
-      <c r="E624" s="20"/>
+      <c r="E624" s="12"/>
     </row>
     <row r="625" spans="5:5" ht="12.45">
-      <c r="E625" s="20"/>
+      <c r="E625" s="12"/>
     </row>
     <row r="626" spans="5:5" ht="12.45">
-      <c r="E626" s="20"/>
+      <c r="E626" s="12"/>
     </row>
     <row r="627" spans="5:5" ht="12.45">
-      <c r="E627" s="20"/>
+      <c r="E627" s="12"/>
     </row>
     <row r="628" spans="5:5" ht="12.45">
-      <c r="E628" s="20"/>
+      <c r="E628" s="12"/>
     </row>
     <row r="629" spans="5:5" ht="12.45">
-      <c r="E629" s="20"/>
+      <c r="E629" s="12"/>
     </row>
     <row r="630" spans="5:5" ht="12.45">
-      <c r="E630" s="20"/>
+      <c r="E630" s="12"/>
     </row>
     <row r="631" spans="5:5" ht="12.45">
-      <c r="E631" s="20"/>
+      <c r="E631" s="12"/>
     </row>
     <row r="632" spans="5:5" ht="12.45">
-      <c r="E632" s="20"/>
+      <c r="E632" s="12"/>
     </row>
     <row r="633" spans="5:5" ht="12.45">
-      <c r="E633" s="20"/>
+      <c r="E633" s="12"/>
     </row>
     <row r="634" spans="5:5" ht="12.45">
-      <c r="E634" s="20"/>
+      <c r="E634" s="12"/>
     </row>
     <row r="635" spans="5:5" ht="12.45">
-      <c r="E635" s="20"/>
+      <c r="E635" s="12"/>
     </row>
     <row r="636" spans="5:5" ht="12.45">
-      <c r="E636" s="20"/>
+      <c r="E636" s="12"/>
     </row>
     <row r="637" spans="5:5" ht="12.45">
-      <c r="E637" s="20"/>
+      <c r="E637" s="12"/>
     </row>
     <row r="638" spans="5:5" ht="12.45">
-      <c r="E638" s="20"/>
+      <c r="E638" s="12"/>
     </row>
     <row r="639" spans="5:5" ht="12.45">
-      <c r="E639" s="20"/>
+      <c r="E639" s="12"/>
     </row>
     <row r="640" spans="5:5" ht="12.45">
-      <c r="E640" s="20"/>
+      <c r="E640" s="12"/>
     </row>
     <row r="641" spans="5:5" ht="12.45">
-      <c r="E641" s="20"/>
+      <c r="E641" s="12"/>
     </row>
     <row r="642" spans="5:5" ht="12.45">
-      <c r="E642" s="20"/>
+      <c r="E642" s="12"/>
     </row>
     <row r="643" spans="5:5" ht="12.45">
-      <c r="E643" s="20"/>
+      <c r="E643" s="12"/>
     </row>
     <row r="644" spans="5:5" ht="12.45">
-      <c r="E644" s="20"/>
+      <c r="E644" s="12"/>
     </row>
     <row r="645" spans="5:5" ht="12.45">
-      <c r="E645" s="20"/>
+      <c r="E645" s="12"/>
     </row>
     <row r="646" spans="5:5" ht="12.45">
-      <c r="E646" s="20"/>
+      <c r="E646" s="12"/>
     </row>
     <row r="647" spans="5:5" ht="12.45">
-      <c r="E647" s="20"/>
+      <c r="E647" s="12"/>
     </row>
     <row r="648" spans="5:5" ht="12.45">
-      <c r="E648" s="20"/>
+      <c r="E648" s="12"/>
     </row>
     <row r="649" spans="5:5" ht="12.45">
-      <c r="E649" s="20"/>
+      <c r="E649" s="12"/>
     </row>
     <row r="650" spans="5:5" ht="12.45">
-      <c r="E650" s="20"/>
+      <c r="E650" s="12"/>
     </row>
     <row r="651" spans="5:5" ht="12.45">
-      <c r="E651" s="20"/>
+      <c r="E651" s="12"/>
     </row>
     <row r="652" spans="5:5" ht="12.45">
-      <c r="E652" s="20"/>
+      <c r="E652" s="12"/>
     </row>
     <row r="653" spans="5:5" ht="12.45">
-      <c r="E653" s="20"/>
+      <c r="E653" s="12"/>
     </row>
     <row r="654" spans="5:5" ht="12.45">
-      <c r="E654" s="20"/>
+      <c r="E654" s="12"/>
     </row>
     <row r="655" spans="5:5" ht="12.45">
-      <c r="E655" s="20"/>
+      <c r="E655" s="12"/>
     </row>
     <row r="656" spans="5:5" ht="12.45">
-      <c r="E656" s="20"/>
+      <c r="E656" s="12"/>
     </row>
     <row r="657" spans="5:5" ht="12.45">
-      <c r="E657" s="20"/>
+      <c r="E657" s="12"/>
     </row>
     <row r="658" spans="5:5" ht="12.45">
-      <c r="E658" s="20"/>
+      <c r="E658" s="12"/>
     </row>
     <row r="659" spans="5:5" ht="12.45">
-      <c r="E659" s="20"/>
+      <c r="E659" s="12"/>
     </row>
     <row r="660" spans="5:5" ht="12.45">
-      <c r="E660" s="20"/>
+      <c r="E660" s="12"/>
     </row>
     <row r="661" spans="5:5" ht="12.45">
-      <c r="E661" s="20"/>
+      <c r="E661" s="12"/>
     </row>
     <row r="662" spans="5:5" ht="12.45">
-      <c r="E662" s="20"/>
+      <c r="E662" s="12"/>
     </row>
     <row r="663" spans="5:5" ht="12.45">
-      <c r="E663" s="20"/>
+      <c r="E663" s="12"/>
     </row>
     <row r="664" spans="5:5" ht="12.45">
-      <c r="E664" s="20"/>
+      <c r="E664" s="12"/>
     </row>
     <row r="665" spans="5:5" ht="12.45">
-      <c r="E665" s="20"/>
+      <c r="E665" s="12"/>
     </row>
     <row r="666" spans="5:5" ht="12.45">
-      <c r="E666" s="20"/>
+      <c r="E666" s="12"/>
     </row>
     <row r="667" spans="5:5" ht="12.45">
-      <c r="E667" s="20"/>
+      <c r="E667" s="12"/>
     </row>
     <row r="668" spans="5:5" ht="12.45">
-      <c r="E668" s="20"/>
+      <c r="E668" s="12"/>
     </row>
     <row r="669" spans="5:5" ht="12.45">
-      <c r="E669" s="20"/>
+      <c r="E669" s="12"/>
     </row>
     <row r="670" spans="5:5" ht="12.45">
-      <c r="E670" s="20"/>
+      <c r="E670" s="12"/>
     </row>
     <row r="671" spans="5:5" ht="12.45">
-      <c r="E671" s="20"/>
+      <c r="E671" s="12"/>
     </row>
     <row r="672" spans="5:5" ht="12.45">
-      <c r="E672" s="20"/>
+      <c r="E672" s="12"/>
     </row>
     <row r="673" spans="5:5" ht="12.45">
-      <c r="E673" s="20"/>
+      <c r="E673" s="12"/>
     </row>
     <row r="674" spans="5:5" ht="12.45">
-      <c r="E674" s="20"/>
+      <c r="E674" s="12"/>
     </row>
     <row r="675" spans="5:5" ht="12.45">
-      <c r="E675" s="20"/>
+      <c r="E675" s="12"/>
     </row>
     <row r="676" spans="5:5" ht="12.45">
-      <c r="E676" s="20"/>
+      <c r="E676" s="12"/>
     </row>
     <row r="677" spans="5:5" ht="12.45">
-      <c r="E677" s="20"/>
+      <c r="E677" s="12"/>
     </row>
     <row r="678" spans="5:5" ht="12.45">
-      <c r="E678" s="20"/>
+      <c r="E678" s="12"/>
     </row>
     <row r="679" spans="5:5" ht="12.45">
-      <c r="E679" s="20"/>
+      <c r="E679" s="12"/>
     </row>
     <row r="680" spans="5:5" ht="12.45">
-      <c r="E680" s="20"/>
+      <c r="E680" s="12"/>
     </row>
     <row r="681" spans="5:5" ht="12.45">
-      <c r="E681" s="20"/>
+      <c r="E681" s="12"/>
     </row>
     <row r="682" spans="5:5" ht="12.45">
-      <c r="E682" s="20"/>
+      <c r="E682" s="12"/>
     </row>
     <row r="683" spans="5:5" ht="12.45">
-      <c r="E683" s="20"/>
+      <c r="E683" s="12"/>
     </row>
     <row r="684" spans="5:5" ht="12.45">
-      <c r="E684" s="20"/>
+      <c r="E684" s="12"/>
     </row>
     <row r="685" spans="5:5" ht="12.45">
-      <c r="E685" s="20"/>
+      <c r="E685" s="12"/>
     </row>
     <row r="686" spans="5:5" ht="12.45">
-      <c r="E686" s="20"/>
+      <c r="E686" s="12"/>
     </row>
     <row r="687" spans="5:5" ht="12.45">
-      <c r="E687" s="20"/>
+      <c r="E687" s="12"/>
     </row>
     <row r="688" spans="5:5" ht="12.45">
-      <c r="E688" s="20"/>
+      <c r="E688" s="12"/>
     </row>
     <row r="689" spans="5:5" ht="12.45">
-      <c r="E689" s="20"/>
+      <c r="E689" s="12"/>
     </row>
     <row r="690" spans="5:5" ht="12.45">
-      <c r="E690" s="20"/>
+      <c r="E690" s="12"/>
     </row>
     <row r="691" spans="5:5" ht="12.45">
-      <c r="E691" s="20"/>
+      <c r="E691" s="12"/>
     </row>
     <row r="692" spans="5:5" ht="12.45">
-      <c r="E692" s="20"/>
+      <c r="E692" s="12"/>
     </row>
     <row r="693" spans="5:5" ht="12.45">
-      <c r="E693" s="20"/>
+      <c r="E693" s="12"/>
     </row>
     <row r="694" spans="5:5" ht="12.45">
-      <c r="E694" s="20"/>
+      <c r="E694" s="12"/>
     </row>
     <row r="695" spans="5:5" ht="12.45">
-      <c r="E695" s="20"/>
+      <c r="E695" s="12"/>
     </row>
     <row r="696" spans="5:5" ht="12.45">
-      <c r="E696" s="20"/>
+      <c r="E696" s="12"/>
     </row>
     <row r="697" spans="5:5" ht="12.45">
-      <c r="E697" s="20"/>
+      <c r="E697" s="12"/>
     </row>
     <row r="698" spans="5:5" ht="12.45">
-      <c r="E698" s="20"/>
+      <c r="E698" s="12"/>
     </row>
     <row r="699" spans="5:5" ht="12.45">
-      <c r="E699" s="20"/>
+      <c r="E699" s="12"/>
     </row>
     <row r="700" spans="5:5" ht="12.45">
-      <c r="E700" s="20"/>
+      <c r="E700" s="12"/>
     </row>
     <row r="701" spans="5:5" ht="12.45">
-      <c r="E701" s="20"/>
+      <c r="E701" s="12"/>
     </row>
     <row r="702" spans="5:5" ht="12.45">
-      <c r="E702" s="20"/>
+      <c r="E702" s="12"/>
     </row>
     <row r="703" spans="5:5" ht="12.45">
-      <c r="E703" s="20"/>
+      <c r="E703" s="12"/>
     </row>
     <row r="704" spans="5:5" ht="12.45">
-      <c r="E704" s="20"/>
+      <c r="E704" s="12"/>
     </row>
     <row r="705" spans="5:5" ht="12.45">
-      <c r="E705" s="20"/>
+      <c r="E705" s="12"/>
     </row>
     <row r="706" spans="5:5" ht="12.45">
-      <c r="E706" s="20"/>
+      <c r="E706" s="12"/>
     </row>
     <row r="707" spans="5:5" ht="12.45">
-      <c r="E707" s="20"/>
+      <c r="E707" s="12"/>
     </row>
     <row r="708" spans="5:5" ht="12.45">
-      <c r="E708" s="20"/>
+      <c r="E708" s="12"/>
     </row>
     <row r="709" spans="5:5" ht="12.45">
-      <c r="E709" s="20"/>
+      <c r="E709" s="12"/>
     </row>
     <row r="710" spans="5:5" ht="12.45">
-      <c r="E710" s="20"/>
+      <c r="E710" s="12"/>
     </row>
     <row r="711" spans="5:5" ht="12.45">
-      <c r="E711" s="20"/>
+      <c r="E711" s="12"/>
     </row>
     <row r="712" spans="5:5" ht="12.45">
-      <c r="E712" s="20"/>
+      <c r="E712" s="12"/>
     </row>
     <row r="713" spans="5:5" ht="12.45">
-      <c r="E713" s="20"/>
+      <c r="E713" s="12"/>
     </row>
     <row r="714" spans="5:5" ht="12.45">
-      <c r="E714" s="20"/>
+      <c r="E714" s="12"/>
     </row>
     <row r="715" spans="5:5" ht="12.45">
-      <c r="E715" s="20"/>
+      <c r="E715" s="12"/>
     </row>
     <row r="716" spans="5:5" ht="12.45">
-      <c r="E716" s="20"/>
+      <c r="E716" s="12"/>
     </row>
     <row r="717" spans="5:5" ht="12.45">
-      <c r="E717" s="20"/>
+      <c r="E717" s="12"/>
     </row>
     <row r="718" spans="5:5" ht="12.45">
-      <c r="E718" s="20"/>
+      <c r="E718" s="12"/>
     </row>
     <row r="719" spans="5:5" ht="12.45">
-      <c r="E719" s="20"/>
+      <c r="E719" s="12"/>
     </row>
     <row r="720" spans="5:5" ht="12.45">
-      <c r="E720" s="20"/>
+      <c r="E720" s="12"/>
     </row>
     <row r="721" spans="5:5" ht="12.45">
-      <c r="E721" s="20"/>
+      <c r="E721" s="12"/>
     </row>
     <row r="722" spans="5:5" ht="12.45">
-      <c r="E722" s="20"/>
+      <c r="E722" s="12"/>
     </row>
     <row r="723" spans="5:5" ht="12.45">
-      <c r="E723" s="20"/>
+      <c r="E723" s="12"/>
     </row>
     <row r="724" spans="5:5" ht="12.45">
-      <c r="E724" s="20"/>
+      <c r="E724" s="12"/>
     </row>
     <row r="725" spans="5:5" ht="12.45">
-      <c r="E725" s="20"/>
+      <c r="E725" s="12"/>
     </row>
     <row r="726" spans="5:5" ht="12.45">
-      <c r="E726" s="20"/>
+      <c r="E726" s="12"/>
     </row>
     <row r="727" spans="5:5" ht="12.45">
-      <c r="E727" s="20"/>
+      <c r="E727" s="12"/>
     </row>
     <row r="728" spans="5:5" ht="12.45">
-      <c r="E728" s="20"/>
+      <c r="E728" s="12"/>
     </row>
     <row r="729" spans="5:5" ht="12.45">
-      <c r="E729" s="20"/>
+      <c r="E729" s="12"/>
     </row>
     <row r="730" spans="5:5" ht="12.45">
-      <c r="E730" s="20"/>
+      <c r="E730" s="12"/>
     </row>
     <row r="731" spans="5:5" ht="12.45">
-      <c r="E731" s="20"/>
+      <c r="E731" s="12"/>
     </row>
     <row r="732" spans="5:5" ht="12.45">
-      <c r="E732" s="20"/>
+      <c r="E732" s="12"/>
     </row>
     <row r="733" spans="5:5" ht="12.45">
-      <c r="E733" s="20"/>
+      <c r="E733" s="12"/>
     </row>
     <row r="734" spans="5:5" ht="12.45">
-      <c r="E734" s="20"/>
+      <c r="E734" s="12"/>
     </row>
     <row r="735" spans="5:5" ht="12.45">
-      <c r="E735" s="20"/>
+      <c r="E735" s="12"/>
     </row>
     <row r="736" spans="5:5" ht="12.45">
-      <c r="E736" s="20"/>
+      <c r="E736" s="12"/>
     </row>
     <row r="737" spans="5:5" ht="12.45">
-      <c r="E737" s="20"/>
+      <c r="E737" s="12"/>
     </row>
     <row r="738" spans="5:5" ht="12.45">
-      <c r="E738" s="20"/>
+      <c r="E738" s="12"/>
     </row>
     <row r="739" spans="5:5" ht="12.45">
-      <c r="E739" s="20"/>
+      <c r="E739" s="12"/>
     </row>
     <row r="740" spans="5:5" ht="12.45">
-      <c r="E740" s="20"/>
+      <c r="E740" s="12"/>
     </row>
     <row r="741" spans="5:5" ht="12.45">
-      <c r="E741" s="20"/>
+      <c r="E741" s="12"/>
     </row>
     <row r="742" spans="5:5" ht="12.45">
-      <c r="E742" s="20"/>
+      <c r="E742" s="12"/>
     </row>
     <row r="743" spans="5:5" ht="12.45">
-      <c r="E743" s="20"/>
+      <c r="E743" s="12"/>
     </row>
     <row r="744" spans="5:5" ht="12.45">
-      <c r="E744" s="20"/>
+      <c r="E744" s="12"/>
     </row>
     <row r="745" spans="5:5" ht="12.45">
-      <c r="E745" s="20"/>
+      <c r="E745" s="12"/>
     </row>
     <row r="746" spans="5:5" ht="12.45">
-      <c r="E746" s="20"/>
+      <c r="E746" s="12"/>
     </row>
     <row r="747" spans="5:5" ht="12.45">
-      <c r="E747" s="20"/>
+      <c r="E747" s="12"/>
     </row>
     <row r="748" spans="5:5" ht="12.45">
-      <c r="E748" s="20"/>
+      <c r="E748" s="12"/>
     </row>
     <row r="749" spans="5:5" ht="12.45">
-      <c r="E749" s="20"/>
+      <c r="E749" s="12"/>
     </row>
     <row r="750" spans="5:5" ht="12.45">
-      <c r="E750" s="20"/>
+      <c r="E750" s="12"/>
     </row>
     <row r="751" spans="5:5" ht="12.45">
-      <c r="E751" s="20"/>
+      <c r="E751" s="12"/>
     </row>
     <row r="752" spans="5:5" ht="12.45">
-      <c r="E752" s="20"/>
+      <c r="E752" s="12"/>
     </row>
     <row r="753" spans="5:5" ht="12.45">
-      <c r="E753" s="20"/>
+      <c r="E753" s="12"/>
     </row>
     <row r="754" spans="5:5" ht="12.45">
-      <c r="E754" s="20"/>
+      <c r="E754" s="12"/>
     </row>
     <row r="755" spans="5:5" ht="12.45">
-      <c r="E755" s="20"/>
+      <c r="E755" s="12"/>
     </row>
     <row r="756" spans="5:5" ht="12.45">
-      <c r="E756" s="20"/>
+      <c r="E756" s="12"/>
     </row>
     <row r="757" spans="5:5" ht="12.45">
-      <c r="E757" s="20"/>
+      <c r="E757" s="12"/>
     </row>
     <row r="758" spans="5:5" ht="12.45">
-      <c r="E758" s="20"/>
+      <c r="E758" s="12"/>
     </row>
     <row r="759" spans="5:5" ht="12.45">
-      <c r="E759" s="20"/>
+      <c r="E759" s="12"/>
     </row>
     <row r="760" spans="5:5" ht="12.45">
-      <c r="E760" s="20"/>
+      <c r="E760" s="12"/>
     </row>
     <row r="761" spans="5:5" ht="12.45">
-      <c r="E761" s="20"/>
+      <c r="E761" s="12"/>
     </row>
     <row r="762" spans="5:5" ht="12.45">
-      <c r="E762" s="20"/>
+      <c r="E762" s="12"/>
     </row>
     <row r="763" spans="5:5" ht="12.45">
-      <c r="E763" s="20"/>
+      <c r="E763" s="12"/>
     </row>
     <row r="764" spans="5:5" ht="12.45">
-      <c r="E764" s="20"/>
+      <c r="E764" s="12"/>
     </row>
     <row r="765" spans="5:5" ht="12.45">
-      <c r="E765" s="20"/>
+      <c r="E765" s="12"/>
     </row>
     <row r="766" spans="5:5" ht="12.45">
-      <c r="E766" s="20"/>
+      <c r="E766" s="12"/>
     </row>
     <row r="767" spans="5:5" ht="12.45">
-      <c r="E767" s="20"/>
+      <c r="E767" s="12"/>
     </row>
     <row r="768" spans="5:5" ht="12.45">
-      <c r="E768" s="20"/>
+      <c r="E768" s="12"/>
     </row>
     <row r="769" spans="5:5" ht="12.45">
-      <c r="E769" s="20"/>
+      <c r="E769" s="12"/>
     </row>
     <row r="770" spans="5:5" ht="12.45">
-      <c r="E770" s="20"/>
+      <c r="E770" s="12"/>
     </row>
     <row r="771" spans="5:5" ht="12.45">
-      <c r="E771" s="20"/>
+      <c r="E771" s="12"/>
     </row>
     <row r="772" spans="5:5" ht="12.45">
-      <c r="E772" s="20"/>
+      <c r="E772" s="12"/>
     </row>
     <row r="773" spans="5:5" ht="12.45">
-      <c r="E773" s="20"/>
+      <c r="E773" s="12"/>
     </row>
     <row r="774" spans="5:5" ht="12.45">
-      <c r="E774" s="20"/>
+      <c r="E774" s="12"/>
     </row>
     <row r="775" spans="5:5" ht="12.45">
-      <c r="E775" s="20"/>
+      <c r="E775" s="12"/>
     </row>
     <row r="776" spans="5:5" ht="12.45">
-      <c r="E776" s="20"/>
+      <c r="E776" s="12"/>
     </row>
     <row r="777" spans="5:5" ht="12.45">
-      <c r="E777" s="20"/>
+      <c r="E777" s="12"/>
     </row>
     <row r="778" spans="5:5" ht="12.45">
-      <c r="E778" s="20"/>
+      <c r="E778" s="12"/>
     </row>
     <row r="779" spans="5:5" ht="12.45">
-      <c r="E779" s="20"/>
+      <c r="E779" s="12"/>
     </row>
     <row r="780" spans="5:5" ht="12.45">
-      <c r="E780" s="20"/>
+      <c r="E780" s="12"/>
     </row>
     <row r="781" spans="5:5" ht="12.45">
-      <c r="E781" s="20"/>
+      <c r="E781" s="12"/>
     </row>
     <row r="782" spans="5:5" ht="12.45">
-      <c r="E782" s="20"/>
+      <c r="E782" s="12"/>
     </row>
     <row r="783" spans="5:5" ht="12.45">
-      <c r="E783" s="20"/>
+      <c r="E783" s="12"/>
     </row>
     <row r="784" spans="5:5" ht="12.45">
-      <c r="E784" s="20"/>
+      <c r="E784" s="12"/>
     </row>
     <row r="785" spans="5:5" ht="12.45">
-      <c r="E785" s="20"/>
+      <c r="E785" s="12"/>
     </row>
     <row r="786" spans="5:5" ht="12.45">
-      <c r="E786" s="20"/>
+      <c r="E786" s="12"/>
     </row>
     <row r="787" spans="5:5" ht="12.45">
-      <c r="E787" s="20"/>
+      <c r="E787" s="12"/>
     </row>
     <row r="788" spans="5:5" ht="12.45">
-      <c r="E788" s="20"/>
+      <c r="E788" s="12"/>
     </row>
     <row r="789" spans="5:5" ht="12.45">
-      <c r="E789" s="20"/>
+      <c r="E789" s="12"/>
     </row>
     <row r="790" spans="5:5" ht="12.45">
-      <c r="E790" s="20"/>
+      <c r="E790" s="12"/>
     </row>
     <row r="791" spans="5:5" ht="12.45">
-      <c r="E791" s="20"/>
+      <c r="E791" s="12"/>
     </row>
     <row r="792" spans="5:5" ht="12.45">
-      <c r="E792" s="20"/>
+      <c r="E792" s="12"/>
     </row>
     <row r="793" spans="5:5" ht="12.45">
-      <c r="E793" s="20"/>
+      <c r="E793" s="12"/>
     </row>
     <row r="794" spans="5:5" ht="12.45">
-      <c r="E794" s="20"/>
+      <c r="E794" s="12"/>
     </row>
     <row r="795" spans="5:5" ht="12.45">
-      <c r="E795" s="20"/>
+      <c r="E795" s="12"/>
     </row>
     <row r="796" spans="5:5" ht="12.45">
-      <c r="E796" s="20"/>
+      <c r="E796" s="12"/>
     </row>
     <row r="797" spans="5:5" ht="12.45">
-      <c r="E797" s="20"/>
+      <c r="E797" s="12"/>
     </row>
     <row r="798" spans="5:5" ht="12.45">
-      <c r="E798" s="20"/>
+      <c r="E798" s="12"/>
     </row>
     <row r="799" spans="5:5" ht="12.45">
-      <c r="E799" s="20"/>
+      <c r="E799" s="12"/>
     </row>
     <row r="800" spans="5:5" ht="12.45">
-      <c r="E800" s="20"/>
+      <c r="E800" s="12"/>
     </row>
     <row r="801" spans="5:5" ht="12.45">
-      <c r="E801" s="20"/>
+      <c r="E801" s="12"/>
     </row>
     <row r="802" spans="5:5" ht="12.45">
-      <c r="E802" s="20"/>
+      <c r="E802" s="12"/>
     </row>
     <row r="803" spans="5:5" ht="12.45">
-      <c r="E803" s="20"/>
+      <c r="E803" s="12"/>
     </row>
     <row r="804" spans="5:5" ht="12.45">
-      <c r="E804" s="20"/>
+      <c r="E804" s="12"/>
     </row>
     <row r="805" spans="5:5" ht="12.45">
-      <c r="E805" s="20"/>
+      <c r="E805" s="12"/>
     </row>
     <row r="806" spans="5:5" ht="12.45">
-      <c r="E806" s="20"/>
+      <c r="E806" s="12"/>
     </row>
     <row r="807" spans="5:5" ht="12.45">
-      <c r="E807" s="20"/>
+      <c r="E807" s="12"/>
     </row>
     <row r="808" spans="5:5" ht="12.45">
-      <c r="E808" s="20"/>
+      <c r="E808" s="12"/>
     </row>
     <row r="809" spans="5:5" ht="12.45">
-      <c r="E809" s="20"/>
+      <c r="E809" s="12"/>
     </row>
     <row r="810" spans="5:5" ht="12.45">
-      <c r="E810" s="20"/>
+      <c r="E810" s="12"/>
     </row>
     <row r="811" spans="5:5" ht="12.45">
-      <c r="E811" s="20"/>
+      <c r="E811" s="12"/>
     </row>
     <row r="812" spans="5:5" ht="12.45">
-      <c r="E812" s="20"/>
+      <c r="E812" s="12"/>
     </row>
     <row r="813" spans="5:5" ht="12.45">
-      <c r="E813" s="20"/>
+      <c r="E813" s="12"/>
     </row>
     <row r="814" spans="5:5" ht="12.45">
-      <c r="E814" s="20"/>
+      <c r="E814" s="12"/>
     </row>
     <row r="815" spans="5:5" ht="12.45">
-      <c r="E815" s="20"/>
+      <c r="E815" s="12"/>
     </row>
     <row r="816" spans="5:5" ht="12.45">
-      <c r="E816" s="20"/>
+      <c r="E816" s="12"/>
     </row>
     <row r="817" spans="5:5" ht="12.45">
-      <c r="E817" s="20"/>
+      <c r="E817" s="12"/>
     </row>
     <row r="818" spans="5:5" ht="12.45">
-      <c r="E818" s="20"/>
+      <c r="E818" s="12"/>
     </row>
     <row r="819" spans="5:5" ht="12.45">
-      <c r="E819" s="20"/>
+      <c r="E819" s="12"/>
     </row>
     <row r="820" spans="5:5" ht="12.45">
-      <c r="E820" s="20"/>
+      <c r="E820" s="12"/>
     </row>
     <row r="821" spans="5:5" ht="12.45">
-      <c r="E821" s="20"/>
+      <c r="E821" s="12"/>
     </row>
     <row r="822" spans="5:5" ht="12.45">
-      <c r="E822" s="20"/>
+      <c r="E822" s="12"/>
     </row>
     <row r="823" spans="5:5" ht="12.45">
-      <c r="E823" s="20"/>
+      <c r="E823" s="12"/>
     </row>
     <row r="824" spans="5:5" ht="12.45">
-      <c r="E824" s="20"/>
+      <c r="E824" s="12"/>
     </row>
     <row r="825" spans="5:5" ht="12.45">
-      <c r="E825" s="20"/>
+      <c r="E825" s="12"/>
     </row>
     <row r="826" spans="5:5" ht="12.45">
-      <c r="E826" s="20"/>
+      <c r="E826" s="12"/>
     </row>
     <row r="827" spans="5:5" ht="12.45">
-      <c r="E827" s="20"/>
+      <c r="E827" s="12"/>
     </row>
     <row r="828" spans="5:5" ht="12.45">
-      <c r="E828" s="20"/>
+      <c r="E828" s="12"/>
     </row>
     <row r="829" spans="5:5" ht="12.45">
-      <c r="E829" s="20"/>
+      <c r="E829" s="12"/>
     </row>
     <row r="830" spans="5:5" ht="12.45">
-      <c r="E830" s="20"/>
+      <c r="E830" s="12"/>
     </row>
     <row r="831" spans="5:5" ht="12.45">
-      <c r="E831" s="20"/>
+      <c r="E831" s="12"/>
     </row>
     <row r="832" spans="5:5" ht="12.45">
-      <c r="E832" s="20"/>
+      <c r="E832" s="12"/>
     </row>
     <row r="833" spans="5:5" ht="12.45">
-      <c r="E833" s="20"/>
+      <c r="E833" s="12"/>
     </row>
     <row r="834" spans="5:5" ht="12.45">
-      <c r="E834" s="20"/>
+      <c r="E834" s="12"/>
     </row>
     <row r="835" spans="5:5" ht="12.45">
-      <c r="E835" s="20"/>
+      <c r="E835" s="12"/>
     </row>
     <row r="836" spans="5:5" ht="12.45">
-      <c r="E836" s="20"/>
+      <c r="E836" s="12"/>
     </row>
     <row r="837" spans="5:5" ht="12.45">
-      <c r="E837" s="20"/>
+      <c r="E837" s="12"/>
     </row>
     <row r="838" spans="5:5" ht="12.45">
-      <c r="E838" s="20"/>
+      <c r="E838" s="12"/>
     </row>
     <row r="839" spans="5:5" ht="12.45">
-      <c r="E839" s="20"/>
+      <c r="E839" s="12"/>
     </row>
     <row r="840" spans="5:5" ht="12.45">
-      <c r="E840" s="20"/>
+      <c r="E840" s="12"/>
     </row>
     <row r="841" spans="5:5" ht="12.45">
-      <c r="E841" s="20"/>
+      <c r="E841" s="12"/>
     </row>
     <row r="842" spans="5:5" ht="12.45">
-      <c r="E842" s="20"/>
+      <c r="E842" s="12"/>
     </row>
     <row r="843" spans="5:5" ht="12.45">
-      <c r="E843" s="20"/>
+      <c r="E843" s="12"/>
     </row>
     <row r="844" spans="5:5" ht="12.45">
-      <c r="E844" s="20"/>
+      <c r="E844" s="12"/>
     </row>
     <row r="845" spans="5:5" ht="12.45">
-      <c r="E845" s="20"/>
+      <c r="E845" s="12"/>
     </row>
     <row r="846" spans="5:5" ht="12.45">
-      <c r="E846" s="20"/>
+      <c r="E846" s="12"/>
     </row>
     <row r="847" spans="5:5" ht="12.45">
-      <c r="E847" s="20"/>
+      <c r="E847" s="12"/>
     </row>
     <row r="848" spans="5:5" ht="12.45">
-      <c r="E848" s="20"/>
+      <c r="E848" s="12"/>
     </row>
     <row r="849" spans="5:5" ht="12.45">
-      <c r="E849" s="20"/>
+      <c r="E849" s="12"/>
     </row>
     <row r="850" spans="5:5" ht="12.45">
-      <c r="E850" s="20"/>
+      <c r="E850" s="12"/>
     </row>
     <row r="851" spans="5:5" ht="12.45">
-      <c r="E851" s="20"/>
+      <c r="E851" s="12"/>
     </row>
     <row r="852" spans="5:5" ht="12.45">
-      <c r="E852" s="20"/>
+      <c r="E852" s="12"/>
     </row>
     <row r="853" spans="5:5" ht="12.45">
-      <c r="E853" s="20"/>
+      <c r="E853" s="12"/>
     </row>
     <row r="854" spans="5:5" ht="12.45">
-      <c r="E854" s="20"/>
+      <c r="E854" s="12"/>
     </row>
     <row r="855" spans="5:5" ht="12.45">
-      <c r="E855" s="20"/>
+      <c r="E855" s="12"/>
     </row>
     <row r="856" spans="5:5" ht="12.45">
-      <c r="E856" s="20"/>
+      <c r="E856" s="12"/>
     </row>
     <row r="857" spans="5:5" ht="12.45">
-      <c r="E857" s="20"/>
+      <c r="E857" s="12"/>
     </row>
     <row r="858" spans="5:5" ht="12.45">
-      <c r="E858" s="20"/>
+      <c r="E858" s="12"/>
     </row>
     <row r="859" spans="5:5" ht="12.45">
-      <c r="E859" s="20"/>
+      <c r="E859" s="12"/>
     </row>
     <row r="860" spans="5:5" ht="12.45">
-      <c r="E860" s="20"/>
+      <c r="E860" s="12"/>
     </row>
     <row r="861" spans="5:5" ht="12.45">
-      <c r="E861" s="20"/>
+      <c r="E861" s="12"/>
     </row>
     <row r="862" spans="5:5" ht="12.45">
-      <c r="E862" s="20"/>
+      <c r="E862" s="12"/>
     </row>
     <row r="863" spans="5:5" ht="12.45">
-      <c r="E863" s="20"/>
+      <c r="E863" s="12"/>
     </row>
     <row r="864" spans="5:5" ht="12.45">
-      <c r="E864" s="20"/>
+      <c r="E864" s="12"/>
     </row>
     <row r="865" spans="5:5" ht="12.45">
-      <c r="E865" s="20"/>
+      <c r="E865" s="12"/>
     </row>
     <row r="866" spans="5:5" ht="12.45">
-      <c r="E866" s="20"/>
+      <c r="E866" s="12"/>
     </row>
     <row r="867" spans="5:5" ht="12.45">
-      <c r="E867" s="20"/>
+      <c r="E867" s="12"/>
     </row>
     <row r="868" spans="5:5" ht="12.45">
-      <c r="E868" s="20"/>
+      <c r="E868" s="12"/>
     </row>
     <row r="869" spans="5:5" ht="12.45">
-      <c r="E869" s="20"/>
+      <c r="E869" s="12"/>
     </row>
     <row r="870" spans="5:5" ht="12.45">
-      <c r="E870" s="20"/>
+      <c r="E870" s="12"/>
     </row>
     <row r="871" spans="5:5" ht="12.45">
-      <c r="E871" s="20"/>
+      <c r="E871" s="12"/>
     </row>
     <row r="872" spans="5:5" ht="12.45">
-      <c r="E872" s="20"/>
+      <c r="E872" s="12"/>
     </row>
     <row r="873" spans="5:5" ht="12.45">
-      <c r="E873" s="20"/>
+      <c r="E873" s="12"/>
     </row>
     <row r="874" spans="5:5" ht="12.45">
-      <c r="E874" s="20"/>
+      <c r="E874" s="12"/>
     </row>
     <row r="875" spans="5:5" ht="12.45">
-      <c r="E875" s="20"/>
+      <c r="E875" s="12"/>
     </row>
     <row r="876" spans="5:5" ht="12.45">
-      <c r="E876" s="20"/>
+      <c r="E876" s="12"/>
     </row>
     <row r="877" spans="5:5" ht="12.45">
-      <c r="E877" s="20"/>
+      <c r="E877" s="12"/>
     </row>
     <row r="878" spans="5:5" ht="12.45">
-      <c r="E878" s="20"/>
+      <c r="E878" s="12"/>
     </row>
     <row r="879" spans="5:5" ht="12.45">
-      <c r="E879" s="20"/>
+      <c r="E879" s="12"/>
     </row>
     <row r="880" spans="5:5" ht="12.45">
-      <c r="E880" s="20"/>
+      <c r="E880" s="12"/>
     </row>
     <row r="881" spans="5:5" ht="12.45">
-      <c r="E881" s="20"/>
+      <c r="E881" s="12"/>
     </row>
     <row r="882" spans="5:5" ht="12.45">
-      <c r="E882" s="20"/>
+      <c r="E882" s="12"/>
     </row>
     <row r="883" spans="5:5" ht="12.45">
-      <c r="E883" s="20"/>
+      <c r="E883" s="12"/>
     </row>
     <row r="884" spans="5:5" ht="12.45">
-      <c r="E884" s="20"/>
+      <c r="E884" s="12"/>
     </row>
     <row r="885" spans="5:5" ht="12.45">
-      <c r="E885" s="20"/>
+      <c r="E885" s="12"/>
     </row>
     <row r="886" spans="5:5" ht="12.45">
-      <c r="E886" s="20"/>
+      <c r="E886" s="12"/>
     </row>
     <row r="887" spans="5:5" ht="12.45">
-      <c r="E887" s="20"/>
+      <c r="E887" s="12"/>
     </row>
     <row r="888" spans="5:5" ht="12.45">
-      <c r="E888" s="20"/>
+      <c r="E888" s="12"/>
     </row>
     <row r="889" spans="5:5" ht="12.45">
-      <c r="E889" s="20"/>
+      <c r="E889" s="12"/>
     </row>
     <row r="890" spans="5:5" ht="12.45">
-      <c r="E890" s="20"/>
+      <c r="E890" s="12"/>
     </row>
     <row r="891" spans="5:5" ht="12.45">
-      <c r="E891" s="20"/>
+      <c r="E891" s="12"/>
     </row>
     <row r="892" spans="5:5" ht="12.45">
-      <c r="E892" s="20"/>
+      <c r="E892" s="12"/>
     </row>
     <row r="893" spans="5:5" ht="12.45">
-      <c r="E893" s="20"/>
+      <c r="E893" s="12"/>
     </row>
     <row r="894" spans="5:5" ht="12.45">
-      <c r="E894" s="20"/>
+      <c r="E894" s="12"/>
     </row>
     <row r="895" spans="5:5" ht="12.45">
-      <c r="E895" s="20"/>
+      <c r="E895" s="12"/>
     </row>
     <row r="896" spans="5:5" ht="12.45">
-      <c r="E896" s="20"/>
+      <c r="E896" s="12"/>
     </row>
     <row r="897" spans="5:5" ht="12.45">
-      <c r="E897" s="20"/>
+      <c r="E897" s="12"/>
     </row>
     <row r="898" spans="5:5" ht="12.45">
-      <c r="E898" s="20"/>
+      <c r="E898" s="12"/>
     </row>
     <row r="899" spans="5:5" ht="12.45">
-      <c r="E899" s="20"/>
+      <c r="E899" s="12"/>
     </row>
     <row r="900" spans="5:5" ht="12.45">
-      <c r="E900" s="20"/>
+      <c r="E900" s="12"/>
     </row>
     <row r="901" spans="5:5" ht="12.45">
-      <c r="E901" s="20"/>
+      <c r="E901" s="12"/>
     </row>
     <row r="902" spans="5:5" ht="12.45">
-      <c r="E902" s="20"/>
+      <c r="E902" s="12"/>
     </row>
     <row r="903" spans="5:5" ht="12.45">
-      <c r="E903" s="20"/>
+      <c r="E903" s="12"/>
     </row>
     <row r="904" spans="5:5" ht="12.45">
-      <c r="E904" s="20"/>
+      <c r="E904" s="12"/>
     </row>
     <row r="905" spans="5:5" ht="12.45">
-      <c r="E905" s="20"/>
+      <c r="E905" s="12"/>
     </row>
     <row r="906" spans="5:5" ht="12.45">
-      <c r="E906" s="20"/>
+      <c r="E906" s="12"/>
     </row>
     <row r="907" spans="5:5" ht="12.45">
-      <c r="E907" s="20"/>
+      <c r="E907" s="12"/>
     </row>
     <row r="908" spans="5:5" ht="12.45">
-      <c r="E908" s="20"/>
+      <c r="E908" s="12"/>
     </row>
     <row r="909" spans="5:5" ht="12.45">
-      <c r="E909" s="20"/>
+      <c r="E909" s="12"/>
     </row>
     <row r="910" spans="5:5" ht="12.45">
-      <c r="E910" s="20"/>
+      <c r="E910" s="12"/>
     </row>
     <row r="911" spans="5:5" ht="12.45">
-      <c r="E911" s="20"/>
+      <c r="E911" s="12"/>
     </row>
     <row r="912" spans="5:5" ht="12.45">
-      <c r="E912" s="20"/>
+      <c r="E912" s="12"/>
     </row>
     <row r="913" spans="5:5" ht="12.45">
-      <c r="E913" s="20"/>
+      <c r="E913" s="12"/>
     </row>
     <row r="914" spans="5:5" ht="12.45">
-      <c r="E914" s="20"/>
+      <c r="E914" s="12"/>
     </row>
     <row r="915" spans="5:5" ht="12.45">
-      <c r="E915" s="20"/>
+      <c r="E915" s="12"/>
     </row>
     <row r="916" spans="5:5" ht="12.45">
-      <c r="E916" s="20"/>
+      <c r="E916" s="12"/>
     </row>
     <row r="917" spans="5:5" ht="12.45">
-      <c r="E917" s="20"/>
+      <c r="E917" s="12"/>
     </row>
     <row r="918" spans="5:5" ht="12.45">
-      <c r="E918" s="20"/>
+      <c r="E918" s="12"/>
     </row>
     <row r="919" spans="5:5" ht="12.45">
-      <c r="E919" s="20"/>
+      <c r="E919" s="12"/>
     </row>
     <row r="920" spans="5:5" ht="12.45">
-      <c r="E920" s="20"/>
+      <c r="E920" s="12"/>
     </row>
     <row r="921" spans="5:5" ht="12.45">
-      <c r="E921" s="20"/>
+      <c r="E921" s="12"/>
     </row>
     <row r="922" spans="5:5" ht="12.45">
-      <c r="E922" s="20"/>
+      <c r="E922" s="12"/>
     </row>
     <row r="923" spans="5:5" ht="12.45">
-      <c r="E923" s="20"/>
+      <c r="E923" s="12"/>
     </row>
     <row r="924" spans="5:5" ht="12.45">
-      <c r="E924" s="20"/>
+      <c r="E924" s="12"/>
     </row>
     <row r="925" spans="5:5" ht="12.45">
-      <c r="E925" s="20"/>
+      <c r="E925" s="12"/>
     </row>
     <row r="926" spans="5:5" ht="12.45">
-      <c r="E926" s="20"/>
+      <c r="E926" s="12"/>
     </row>
     <row r="927" spans="5:5" ht="12.45">
-      <c r="E927" s="20"/>
+      <c r="E927" s="12"/>
     </row>
     <row r="928" spans="5:5" ht="12.45">
-      <c r="E928" s="20"/>
+      <c r="E928" s="12"/>
     </row>
     <row r="929" spans="5:5" ht="12.45">
-      <c r="E929" s="20"/>
+      <c r="E929" s="12"/>
     </row>
     <row r="930" spans="5:5" ht="12.45">
-      <c r="E930" s="20"/>
+      <c r="E930" s="12"/>
     </row>
     <row r="931" spans="5:5" ht="12.45">
-      <c r="E931" s="20"/>
+      <c r="E931" s="12"/>
     </row>
     <row r="932" spans="5:5" ht="12.45">
-      <c r="E932" s="20"/>
+      <c r="E932" s="12"/>
     </row>
     <row r="933" spans="5:5" ht="12.45">
-      <c r="E933" s="20"/>
+      <c r="E933" s="12"/>
     </row>
     <row r="934" spans="5:5" ht="12.45">
-      <c r="E934" s="20"/>
+      <c r="E934" s="12"/>
     </row>
     <row r="935" spans="5:5" ht="12.45">
-      <c r="E935" s="20"/>
+      <c r="E935" s="12"/>
     </row>
     <row r="936" spans="5:5" ht="12.45">
-      <c r="E936" s="20"/>
+      <c r="E936" s="12"/>
     </row>
     <row r="937" spans="5:5" ht="12.45">
-      <c r="E937" s="20"/>
+      <c r="E937" s="12"/>
     </row>
     <row r="938" spans="5:5" ht="12.45">
-      <c r="E938" s="20"/>
+      <c r="E938" s="12"/>
     </row>
     <row r="939" spans="5:5" ht="12.45">
-      <c r="E939" s="20"/>
+      <c r="E939" s="12"/>
     </row>
     <row r="940" spans="5:5" ht="12.45">
-      <c r="E940" s="20"/>
+      <c r="E940" s="12"/>
     </row>
     <row r="941" spans="5:5" ht="12.45">
-      <c r="E941" s="20"/>
+      <c r="E941" s="12"/>
     </row>
     <row r="942" spans="5:5" ht="12.45">
-      <c r="E942" s="20"/>
+      <c r="E942" s="12"/>
     </row>
     <row r="943" spans="5:5" ht="12.45">
-      <c r="E943" s="20"/>
+      <c r="E943" s="12"/>
     </row>
     <row r="944" spans="5:5" ht="12.45">
-      <c r="E944" s="20"/>
+      <c r="E944" s="12"/>
     </row>
     <row r="945" spans="5:5" ht="12.45">
-      <c r="E945" s="20"/>
+      <c r="E945" s="12"/>
     </row>
     <row r="946" spans="5:5" ht="12.45">
-      <c r="E946" s="20"/>
+      <c r="E946" s="12"/>
     </row>
     <row r="947" spans="5:5" ht="12.45">
-      <c r="E947" s="20"/>
+      <c r="E947" s="12"/>
     </row>
     <row r="948" spans="5:5" ht="12.45">
-      <c r="E948" s="20"/>
+      <c r="E948" s="12"/>
     </row>
     <row r="949" spans="5:5" ht="12.45">
-      <c r="E949" s="20"/>
+      <c r="E949" s="12"/>
     </row>
     <row r="950" spans="5:5" ht="12.45">
-      <c r="E950" s="20"/>
+      <c r="E950" s="12"/>
     </row>
     <row r="951" spans="5:5" ht="12.45">
-      <c r="E951" s="20"/>
+      <c r="E951" s="12"/>
     </row>
     <row r="952" spans="5:5" ht="12.45">
-      <c r="E952" s="20"/>
+      <c r="E952" s="12"/>
     </row>
     <row r="953" spans="5:5" ht="12.45">
-      <c r="E953" s="20"/>
+      <c r="E953" s="12"/>
     </row>
     <row r="954" spans="5:5" ht="12.45">
-      <c r="E954" s="20"/>
+      <c r="E954" s="12"/>
     </row>
     <row r="955" spans="5:5" ht="12.45">
-      <c r="E955" s="20"/>
+      <c r="E955" s="12"/>
     </row>
     <row r="956" spans="5:5" ht="12.45">
-      <c r="E956" s="20"/>
+      <c r="E956" s="12"/>
     </row>
     <row r="957" spans="5:5" ht="12.45">
-      <c r="E957" s="20"/>
+      <c r="E957" s="12"/>
     </row>
     <row r="958" spans="5:5" ht="12.45">
-      <c r="E958" s="20"/>
+      <c r="E958" s="12"/>
     </row>
     <row r="959" spans="5:5" ht="12.45">
-      <c r="E959" s="20"/>
+      <c r="E959" s="12"/>
     </row>
     <row r="960" spans="5:5" ht="12.45">
-      <c r="E960" s="20"/>
+      <c r="E960" s="12"/>
     </row>
     <row r="961" spans="5:5" ht="12.45">
-      <c r="E961" s="20"/>
+      <c r="E961" s="12"/>
     </row>
     <row r="962" spans="5:5" ht="12.45">
-      <c r="E962" s="20"/>
+      <c r="E962" s="12"/>
     </row>
     <row r="963" spans="5:5" ht="12.45">
-      <c r="E963" s="20"/>
+      <c r="E963" s="12"/>
     </row>
     <row r="964" spans="5:5" ht="12.45">
-      <c r="E964" s="20"/>
+      <c r="E964" s="12"/>
     </row>
     <row r="965" spans="5:5" ht="12.45">
-      <c r="E965" s="20"/>
+      <c r="E965" s="12"/>
     </row>
     <row r="966" spans="5:5" ht="12.45">
-      <c r="E966" s="20"/>
+      <c r="E966" s="12"/>
     </row>
     <row r="967" spans="5:5" ht="12.45">
-      <c r="E967" s="20"/>
+      <c r="E967" s="12"/>
     </row>
     <row r="968" spans="5:5" ht="12.45">
-      <c r="E968" s="20"/>
+      <c r="E968" s="12"/>
     </row>
     <row r="969" spans="5:5" ht="12.45">
-      <c r="E969" s="20"/>
+      <c r="E969" s="12"/>
     </row>
     <row r="970" spans="5:5" ht="12.45">
-      <c r="E970" s="20"/>
+      <c r="E970" s="12"/>
     </row>
     <row r="971" spans="5:5" ht="12.45">
-      <c r="E971" s="20"/>
+      <c r="E971" s="12"/>
     </row>
     <row r="972" spans="5:5" ht="12.45">
-      <c r="E972" s="20"/>
+      <c r="E972" s="12"/>
     </row>
     <row r="973" spans="5:5" ht="12.45">
-      <c r="E973" s="20"/>
+      <c r="E973" s="12"/>
     </row>
     <row r="974" spans="5:5" ht="12.45">
-      <c r="E974" s="20"/>
+      <c r="E974" s="12"/>
     </row>
     <row r="975" spans="5:5" ht="12.45">
-      <c r="E975" s="20"/>
+      <c r="E975" s="12"/>
     </row>
     <row r="976" spans="5:5" ht="12.45">
-      <c r="E976" s="20"/>
+      <c r="E976" s="12"/>
     </row>
     <row r="977" spans="5:5" ht="12.45">
-      <c r="E977" s="20"/>
+      <c r="E977" s="12"/>
     </row>
     <row r="978" spans="5:5" ht="12.45">
-      <c r="E978" s="20"/>
+      <c r="E978" s="12"/>
     </row>
     <row r="979" spans="5:5" ht="12.45">
-      <c r="E979" s="20"/>
+      <c r="E979" s="12"/>
     </row>
     <row r="980" spans="5:5" ht="12.45">
-      <c r="E980" s="20"/>
+      <c r="E980" s="12"/>
     </row>
     <row r="981" spans="5:5" ht="12.45">
-      <c r="E981" s="20"/>
+      <c r="E981" s="12"/>
     </row>
     <row r="982" spans="5:5" ht="12.45">
-      <c r="E982" s="20"/>
+      <c r="E982" s="12"/>
     </row>
     <row r="983" spans="5:5" ht="12.45">
-      <c r="E983" s="20"/>
+      <c r="E983" s="12"/>
     </row>
     <row r="984" spans="5:5" ht="12.45">
-      <c r="E984" s="20"/>
+      <c r="E984" s="12"/>
     </row>
     <row r="985" spans="5:5" ht="12.45">
-      <c r="E985" s="20"/>
+      <c r="E985" s="12"/>
     </row>
     <row r="986" spans="5:5" ht="12.45">
-      <c r="E986" s="20"/>
+      <c r="E986" s="12"/>
     </row>
     <row r="987" spans="5:5" ht="12.45">
-      <c r="E987" s="20"/>
+      <c r="E987" s="12"/>
     </row>
     <row r="988" spans="5:5" ht="12.45">
-      <c r="E988" s="20"/>
-    </row>
-    <row r="989" spans="5:5" ht="12.45">
-      <c r="E989" s="20"/>
-    </row>
-    <row r="990" spans="5:5" ht="12.45">
-      <c r="E990" s="20"/>
-    </row>
-    <row r="991" spans="5:5" ht="12.45">
-      <c r="E991" s="20"/>
-    </row>
-    <row r="992" spans="5:5" ht="12.45">
-      <c r="E992" s="20"/>
-    </row>
-    <row r="993" spans="5:5" ht="12.45">
-      <c r="E993" s="20"/>
-    </row>
-    <row r="994" spans="5:5" ht="12.45">
-      <c r="E994" s="20"/>
-    </row>
-    <row r="995" spans="5:5" ht="12.45">
-      <c r="E995" s="20"/>
-    </row>
-    <row r="996" spans="5:5" ht="12.45">
-      <c r="E996" s="20"/>
-    </row>
-    <row r="997" spans="5:5" ht="12.45">
-      <c r="E997" s="20"/>
-    </row>
-    <row r="998" spans="5:5" ht="12.45">
-      <c r="E998" s="20"/>
-    </row>
-    <row r="999" spans="5:5" ht="12.45">
-      <c r="E999" s="20"/>
-    </row>
-    <row r="1000" spans="5:5" ht="12.45">
-      <c r="E1000" s="20"/>
-    </row>
-    <row r="1001" spans="5:5" ht="12.45">
-      <c r="E1001" s="20"/>
-    </row>
-    <row r="1002" spans="5:5" ht="12.45">
-      <c r="E1002" s="20"/>
-    </row>
-    <row r="1003" spans="5:5" ht="12.45">
-      <c r="E1003" s="20"/>
-    </row>
-    <row r="1004" spans="5:5" ht="12.45">
-      <c r="E1004" s="20"/>
-    </row>
-    <row r="1005" spans="5:5" ht="12.45">
-      <c r="E1005" s="20"/>
-    </row>
-    <row r="1006" spans="5:5" ht="12.45">
-      <c r="E1006" s="20"/>
-    </row>
-    <row r="1007" spans="5:5" ht="12.45">
-      <c r="E1007" s="20"/>
-    </row>
-    <row r="1008" spans="5:5" ht="12.45">
-      <c r="E1008" s="20"/>
-    </row>
-    <row r="1009" spans="5:5" ht="12.45">
-      <c r="E1009" s="20"/>
-    </row>
-    <row r="1010" spans="5:5" ht="12.45">
-      <c r="E1010" s="20"/>
-    </row>
-    <row r="1011" spans="5:5" ht="12.45">
-      <c r="E1011" s="20"/>
-    </row>
-    <row r="1012" spans="5:5" ht="12.45">
-      <c r="E1012" s="20"/>
-    </row>
-    <row r="1013" spans="5:5" ht="12.45">
-      <c r="E1013" s="20"/>
-    </row>
-    <row r="1014" spans="5:5" ht="12.45">
-      <c r="E1014" s="20"/>
+      <c r="E988" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Database Design.xlsx
+++ b/Database/Database Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="201">
   <si>
     <t>Notes - MarketPlace</t>
   </si>
@@ -534,39 +534,6 @@
     <t>LinkedInUrl</t>
   </si>
   <si>
-    <t>Table: - ManageCTC</t>
-  </si>
-  <si>
-    <t>This table is for managing the category, type and country. Admin can manage this table</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY relationship with CTC table.</t>
-  </si>
-  <si>
-    <t>Value*</t>
-  </si>
-  <si>
-    <t>Value of type, country or category.</t>
-  </si>
-  <si>
-    <t>Description*</t>
-  </si>
-  <si>
-    <t>Description about type, country or category.</t>
-  </si>
-  <si>
-    <t>CountryCode*</t>
-  </si>
-  <si>
-    <t>Country code are written when only country related record is created.</t>
-  </si>
-  <si>
-    <t>Table: CTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries can be Country, Type, Category </t>
-  </si>
-  <si>
     <t>Address2</t>
   </si>
   <si>
@@ -579,9 +546,6 @@
     <t>User/Buyer</t>
   </si>
   <si>
-    <t>CTC</t>
-  </si>
-  <si>
     <t>NoteID</t>
   </si>
   <si>
@@ -598,9 +562,6 @@
   </si>
   <si>
     <t xml:space="preserve">Table: - NoteStatus </t>
-  </si>
-  <si>
-    <t>This is master table. Over this table one can do three static entries i.e. for defining status of note : Country, Type, Category  entries can be inserted via backend script</t>
   </si>
   <si>
     <t>FOREIGN KEY relationship with User table.</t>
@@ -760,6 +721,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>FileName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FilePath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1099,29 +1090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1131,8 +1099,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1354,10 +1345,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E988"/>
+  <dimension ref="A1:E971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1367,13 +1358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.65" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="14.6">
       <c r="A2" s="1"/>
@@ -1390,22 +1381,22 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="14.6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="14.6">
       <c r="A6" s="3" t="s">
@@ -1426,7 +1417,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.6">
       <c r="A7" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
@@ -1441,7 +1432,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.6">
       <c r="A8" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>8</v>
@@ -1642,22 +1633,22 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18.45">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="14.6">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="14.6">
       <c r="A24" s="3" t="s">
@@ -1678,7 +1669,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.6">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>8</v>
@@ -1815,22 +1806,22 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="18.45">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="14.6">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" ht="14.6">
       <c r="A37" s="3" t="s">
@@ -1851,7 +1842,7 @@
     </row>
     <row r="38" spans="1:5" ht="14.6">
       <c r="A38" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>8</v>
@@ -1861,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.6">
@@ -1949,7 +1940,7 @@
     </row>
     <row r="44" spans="1:5" ht="14.6">
       <c r="A44" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
@@ -2156,22 +2147,22 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="18.45">
-      <c r="A58" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="A58" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="14.6">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5" ht="14.6">
       <c r="A60" s="3" t="s">
@@ -2192,7 +2183,7 @@
     </row>
     <row r="61" spans="1:5" ht="14.6">
       <c r="A61" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>8</v>
@@ -2207,7 +2198,7 @@
     </row>
     <row r="62" spans="1:5" ht="14.6">
       <c r="A62" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>8</v>
@@ -2222,7 +2213,7 @@
     </row>
     <row r="63" spans="1:5" ht="14.6">
       <c r="A63" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>8</v>
@@ -2606,22 +2597,22 @@
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="18.45">
-      <c r="A88" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
+      <c r="A88" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="90" spans="1:5" ht="14.6">
       <c r="A90" s="3" t="s">
@@ -2642,7 +2633,7 @@
     </row>
     <row r="91" spans="1:5" ht="14.6">
       <c r="A91" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>8</v>
@@ -2779,22 +2770,22 @@
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="18.45">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="1:5" ht="14.6">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" spans="1:5" ht="14.6">
       <c r="A103" s="3" t="s">
@@ -2813,24 +2804,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.6">
-      <c r="A104" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>113</v>
+    <row r="104" spans="1:5" ht="12.45">
+      <c r="A104" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.6">
       <c r="A105" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>8</v>
@@ -2840,12 +2831,12 @@
         <v>9</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.6">
       <c r="A106" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>8</v>
@@ -2858,779 +2849,779 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="29.15">
-      <c r="A107" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="107" spans="1:5" ht="14.6">
+      <c r="A107" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="21">
+        <v>100</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="14.6">
-      <c r="A108" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A108" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" ht="14.6">
       <c r="A109" s="6" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="14.6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="29.15">
       <c r="A110" s="6" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.6">
       <c r="A111" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.6">
       <c r="A112" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E112" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.6">
+      <c r="A113" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14.6">
+      <c r="A114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14.6">
+      <c r="A115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" ht="14.6">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" ht="18.45">
-      <c r="A115" s="22" t="s">
+    <row r="116" spans="1:5" ht="14.6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="14.6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="18.45">
+      <c r="A118" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="1:5" ht="14.6">
-      <c r="A116" s="23" t="s">
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" ht="14.6">
+      <c r="A119" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" spans="1:5" ht="14.6">
-      <c r="A117" s="3" t="s">
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+    </row>
+    <row r="120" spans="1:5" ht="14.6">
+      <c r="A120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.6">
-      <c r="A118" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="11">
-        <v>50</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="14.6">
-      <c r="A119" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="11">
-        <v>50</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="14.6">
-      <c r="A120" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="11">
-        <v>100</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="14.6">
-      <c r="A121" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>126</v>
+    <row r="121" spans="1:5" ht="12.45">
+      <c r="A121" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.6">
       <c r="A122" s="6" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C122" s="11">
+        <v>50</v>
+      </c>
       <c r="D122" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.6">
       <c r="A123" s="6" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C123" s="11">
+        <v>50</v>
+      </c>
       <c r="D123" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.6">
       <c r="A124" s="6" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C124" s="11">
+        <v>100</v>
+      </c>
       <c r="D124" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.6">
       <c r="A125" s="6" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D125" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.6">
       <c r="A126" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E126" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14.6">
+      <c r="A127" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="14.6">
+      <c r="A128" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14.6">
+      <c r="A129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14.6">
+      <c r="A130" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.6">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" ht="14.6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="18.45">
-      <c r="A129" s="22" t="s">
+    <row r="131" spans="1:5" ht="14.6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="14.6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="18.45">
+      <c r="A133" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="21"/>
-    </row>
-    <row r="130" spans="1:5" ht="14.6">
-      <c r="A130" s="23" t="s">
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="26"/>
+    </row>
+    <row r="134" spans="1:5" ht="14.6">
+      <c r="A134" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-    </row>
-    <row r="131" spans="1:5" ht="14.6">
-      <c r="A131" s="3" t="s">
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+    </row>
+    <row r="135" spans="1:5" ht="14.6">
+      <c r="A135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.6">
-      <c r="A132" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="14.6">
-      <c r="A133" s="6" t="s">
+    <row r="136" spans="1:5" ht="12.45">
+      <c r="A136" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="14.6">
-      <c r="A134" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="14.6">
-      <c r="A135" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="14.6">
-      <c r="A136" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>27</v>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="14.6">
       <c r="A137" s="6" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="14.6">
       <c r="A138" s="6" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="14.6">
       <c r="A139" s="6" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="14.6">
       <c r="A140" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="14.6">
+      <c r="A141" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14.6">
+      <c r="A142" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.6">
+      <c r="A143" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="14.6">
+      <c r="A144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="14.6">
+      <c r="A145" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" s="7" t="s">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.6">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" ht="14.6">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="18.45">
-      <c r="A143" s="22" t="s">
+    <row r="146" spans="1:5" ht="14.6">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="14.6">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="18.45">
+      <c r="A148" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="21"/>
-    </row>
-    <row r="144" spans="1:5" ht="14.6">
-      <c r="A144" s="23" t="s">
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5" ht="14.6">
+      <c r="A149" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-    </row>
-    <row r="145" spans="1:5" ht="14.6">
-      <c r="A145" s="3" t="s">
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+    </row>
+    <row r="150" spans="1:5" ht="14.6">
+      <c r="A150" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.6">
-      <c r="A146" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="14.6">
-      <c r="A147" s="6" t="s">
+    <row r="151" spans="1:5" ht="12.45">
+      <c r="A151" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="14.6">
-      <c r="A148" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="14.6">
-      <c r="A149" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="14.6">
-      <c r="A150" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="14.6">
-      <c r="A151" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>31</v>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="14.6">
       <c r="A152" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="12.45">
-      <c r="E153" s="12"/>
-    </row>
-    <row r="154" spans="1:5" ht="12.45">
-      <c r="E154" s="12"/>
-    </row>
-    <row r="155" spans="1:5" ht="18.45">
-      <c r="A155" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="21"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="14.6">
+      <c r="A153" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="14.6">
+      <c r="A154" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="14.6">
+      <c r="A155" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="14.6">
-      <c r="A156" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="A156" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="157" spans="1:5" ht="14.6">
-      <c r="A157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>7</v>
+      <c r="A157" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="14.6">
       <c r="A158" s="6" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="14.6">
-      <c r="A159" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.6">
-      <c r="A160" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="14.6">
-      <c r="A161" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="12.45">
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" ht="12.45">
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" ht="18.45">
+      <c r="A161" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="26"/>
     </row>
     <row r="162" spans="1:5" ht="14.6">
-      <c r="A162" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="A162" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="1:5" ht="14.6">
-      <c r="A163" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="14.6">
-      <c r="A164" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>150</v>
+      <c r="A163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="12.45">
+      <c r="A164" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="14.6">
       <c r="A165" s="6" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>8</v>
@@ -3640,12 +3631,12 @@
         <v>9</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="14.6">
       <c r="A166" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>8</v>
@@ -3655,1123 +3646,949 @@
         <v>9</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="12.45">
-      <c r="E167" s="12"/>
-    </row>
-    <row r="168" spans="1:5" ht="12.45">
-      <c r="E168" s="12"/>
-    </row>
-    <row r="169" spans="1:5" ht="18.45">
-      <c r="A169" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="21"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="14.6">
+      <c r="A167" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="14.6">
+      <c r="A168" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="14.6">
+      <c r="A169" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="170" spans="1:5" ht="14.6">
-      <c r="A170" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
+      <c r="A170" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="171" spans="1:5" ht="14.6">
-      <c r="A171" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>7</v>
+      <c r="A171" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="14.6">
       <c r="A172" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="11">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="14.6">
       <c r="A173" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="11">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C173" s="11"/>
       <c r="D173" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="14.6">
-      <c r="A174" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" s="11">
-        <v>15</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="29.15">
-      <c r="A175" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="24.9">
-      <c r="A176" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>165</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="12.45">
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" ht="12.45">
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" ht="18.45">
+      <c r="A176" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="26"/>
     </row>
     <row r="177" spans="1:5" ht="14.6">
-      <c r="A177" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" s="11">
-        <v>50</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="A177" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" spans="1:5" ht="14.6">
-      <c r="A178" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="11">
-        <v>50</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>167</v>
+      <c r="A178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="14.6">
       <c r="A179" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="11">
+        <v>100</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.6">
+      <c r="A180" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="11">
+        <v>100</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14.6">
+      <c r="A181" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="11">
+        <v>15</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="29.15">
+      <c r="A182" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="24.9">
+      <c r="A183" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14.6">
+      <c r="A184" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="11">
+        <v>50</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="14.6">
+      <c r="A185" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="11">
+        <v>50</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="14.6">
+      <c r="A186" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B186" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C179" s="11">
+      <c r="C186" s="11">
         <v>50</v>
       </c>
-      <c r="D179" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="13" t="s">
+      <c r="D186" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.6">
-      <c r="A180" s="9" t="s">
+    <row r="187" spans="1:5" ht="14.6">
+      <c r="A187" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B187" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E180" s="14" t="s">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="43.75">
-      <c r="A181" s="6" t="s">
+    <row r="188" spans="1:5" ht="43.75">
+      <c r="A188" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B188" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E181" s="7" t="s">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="7" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="14.6">
-      <c r="A182" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="14.6">
-      <c r="A183" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="12.45">
-      <c r="E184" s="12"/>
-    </row>
-    <row r="185" spans="1:5" ht="12.45">
-      <c r="E185" s="12"/>
-    </row>
-    <row r="186" spans="1:5" ht="18.45">
-      <c r="A186" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="21"/>
-    </row>
-    <row r="187" spans="1:5" ht="14.6">
-      <c r="A187" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="20"/>
-    </row>
-    <row r="188" spans="1:5" ht="14.6">
-      <c r="A188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="14.6">
       <c r="A189" s="6" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="14.6">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="B190" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="12.45">
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" ht="12.45">
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" ht="12.45">
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" ht="17.600000000000001">
+      <c r="A194" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+    </row>
+    <row r="195" spans="1:5" ht="12.45">
+      <c r="A195" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+    </row>
+    <row r="196" spans="1:5" ht="14.15">
+      <c r="A196" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="12.45">
+      <c r="A197" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="14.15">
+      <c r="A198" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B198" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C198" s="20">
         <v>100</v>
       </c>
-      <c r="D190" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="14.6">
-      <c r="A191" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191" s="11" t="s">
+      <c r="D198" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="14.15">
+      <c r="A199" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B199" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C191" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="14.6">
-      <c r="A192" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B192" s="11" t="s">
+      <c r="C199" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="12.45">
+      <c r="A200" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="12.45">
+      <c r="A201" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="12.45">
+      <c r="A202" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="12.45">
+      <c r="A203" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="12.45">
+      <c r="A204" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="12.45">
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+    </row>
+    <row r="206" spans="1:5" ht="12.45">
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+    </row>
+    <row r="207" spans="1:5" ht="17.600000000000001">
+      <c r="A207" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+    </row>
+    <row r="208" spans="1:5" ht="12.45">
+      <c r="A208" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+    </row>
+    <row r="209" spans="1:5" ht="14.15">
+      <c r="A209" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="12.45">
+      <c r="A210" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B210" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="14.6">
-      <c r="A193" s="9" t="s">
+      <c r="C210" s="20"/>
+      <c r="D210" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="14.15">
+      <c r="A211" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="20">
+        <v>100</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="14.15">
+      <c r="A212" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="12.45">
+      <c r="A213" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B213" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="7" t="s">
+      <c r="C213" s="20"/>
+      <c r="D213" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="43.75">
-      <c r="A194" s="6" t="s">
+    <row r="214" spans="1:5" ht="12.45">
+      <c r="A214" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B214" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="12.45">
+      <c r="A215" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="12.45">
+      <c r="A216" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E216" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="12.45">
+      <c r="A217" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="12.45">
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+    </row>
+    <row r="219" spans="1:5" ht="12.45">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+    </row>
+    <row r="220" spans="1:5" ht="17.600000000000001">
+      <c r="A220" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+    </row>
+    <row r="221" spans="1:5" ht="12.45">
+      <c r="A221" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+    </row>
+    <row r="222" spans="1:5" ht="14.15">
+      <c r="A222" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="12.45">
+      <c r="A223" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B223" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="14.6">
-      <c r="A195" s="6" t="s">
+      <c r="C223" s="20"/>
+      <c r="D223" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14.15">
+      <c r="A224" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="20">
+        <v>100</v>
+      </c>
+      <c r="D224" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14.15">
+      <c r="A225" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D225" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="12.45">
+      <c r="A226" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="12.45">
+      <c r="A227" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="12.45">
+      <c r="A228" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B228" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E195" s="7" t="s">
+      <c r="C228" s="20"/>
+      <c r="D228" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="14.6">
-      <c r="A196" s="6" t="s">
+    <row r="229" spans="1:5" ht="12.45">
+      <c r="A229" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="14.6">
-      <c r="A197" s="6" t="s">
+      <c r="B229" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="12.45">
+      <c r="A230" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B230" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" s="7" t="s">
+      <c r="C230" s="20"/>
+      <c r="D230" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="14.6">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" ht="14.6">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="10"/>
-    </row>
-    <row r="200" spans="1:5" ht="18.45">
-      <c r="A200" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="21"/>
-    </row>
-    <row r="201" spans="1:5" ht="14.6">
-      <c r="A201" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-    </row>
-    <row r="202" spans="1:5" ht="14.6">
-      <c r="A202" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="14.6">
-      <c r="A203" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="14.6">
-      <c r="A204" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" s="11">
-        <v>50</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="14.6">
-      <c r="A205" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="14.6">
-      <c r="A206" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="14.6">
-      <c r="A207" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="14.6">
-      <c r="A208" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="14.6">
-      <c r="A209" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="12.45">
-      <c r="E210" s="12"/>
-    </row>
-    <row r="211" spans="1:5" ht="17.600000000000001">
-      <c r="A211" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="31"/>
-    </row>
-    <row r="212" spans="1:5" ht="12.45">
-      <c r="A212" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-    </row>
-    <row r="213" spans="1:5" ht="14.15">
-      <c r="A213" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B213" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D213" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="12.45">
-      <c r="A214" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B214" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="14.15">
-      <c r="A215" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B215" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" s="29">
-        <v>100</v>
-      </c>
-      <c r="D215" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="14.15">
-      <c r="A216" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B216" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D216" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="12.45">
-      <c r="A217" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B217" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E217" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="12.45">
-      <c r="A218" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B218" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E218" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="12.45">
-      <c r="A219" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B219" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E219" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="12.45">
-      <c r="A220" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C220" s="29"/>
-      <c r="D220" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E220" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="12.45">
-      <c r="A221" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B221" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="12.45">
-      <c r="A222" s="30"/>
-      <c r="B222" s="30"/>
-      <c r="C222" s="30"/>
-      <c r="D222" s="30"/>
-      <c r="E222" s="30"/>
-    </row>
-    <row r="223" spans="1:5" ht="12.45">
-      <c r="A223" s="30"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="30"/>
-      <c r="D223" s="30"/>
-      <c r="E223" s="30"/>
-    </row>
-    <row r="224" spans="1:5" ht="17.600000000000001">
-      <c r="A224" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
-      <c r="D224" s="31"/>
-      <c r="E224" s="31"/>
-    </row>
-    <row r="225" spans="1:5" ht="12.45">
-      <c r="A225" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-    </row>
-    <row r="226" spans="1:5" ht="14.15">
-      <c r="A226" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E226" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="12.45">
-      <c r="A227" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B227" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="29"/>
-      <c r="D227" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="14.15">
-      <c r="A228" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B228" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C228" s="29">
-        <v>100</v>
-      </c>
-      <c r="D228" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="14.15">
-      <c r="A229" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B229" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C229" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D229" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E229" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="12.45">
-      <c r="A230" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B230" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="231" spans="1:5" ht="12.45">
-      <c r="A231" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B231" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E231" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="A231" s="21"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
     </row>
     <row r="232" spans="1:5" ht="12.45">
-      <c r="A232" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B232" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E232" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="A232" s="21"/>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
     </row>
     <row r="233" spans="1:5" ht="12.45">
-      <c r="A233" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B233" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E233" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5" ht="12.45">
-      <c r="A234" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B234" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E234" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" spans="1:5" ht="12.45">
-      <c r="A235" s="30"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="30"/>
-      <c r="D235" s="30"/>
-      <c r="E235" s="30"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="1:5" ht="12.45">
-      <c r="A236" s="30"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="30"/>
-      <c r="D236" s="30"/>
-      <c r="E236" s="30"/>
-    </row>
-    <row r="237" spans="1:5" ht="17.600000000000001">
-      <c r="A237" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="31"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" ht="12.45">
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="1:5" ht="12.45">
-      <c r="A238" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-    </row>
-    <row r="239" spans="1:5" ht="14.15">
-      <c r="A239" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B239" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E239" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" spans="1:5" ht="12.45">
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="1:5" ht="12.45">
-      <c r="A240" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B240" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="14.15">
-      <c r="A241" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B241" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C241" s="29">
-        <v>100</v>
-      </c>
-      <c r="D241" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="14.15">
-      <c r="A242" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B242" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C242" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D242" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="12.45">
-      <c r="A243" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B243" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E243" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="12.45">
-      <c r="A244" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E244" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="12.45">
-      <c r="A245" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B245" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E245" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="12.45">
-      <c r="A246" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B246" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C246" s="29"/>
-      <c r="D246" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E246" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="12.45">
-      <c r="A247" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B247" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C247" s="29"/>
-      <c r="D247" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E247" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="12.45">
-      <c r="A248" s="30"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
-      <c r="D248" s="30"/>
-      <c r="E248" s="30"/>
-    </row>
-    <row r="249" spans="1:5" ht="12.45">
-      <c r="A249" s="30"/>
-      <c r="B249" s="30"/>
-      <c r="C249" s="30"/>
-      <c r="D249" s="30"/>
-      <c r="E249" s="30"/>
-    </row>
-    <row r="250" spans="1:5" ht="12.45">
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="5:5" ht="12.45">
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="5:5" ht="12.45">
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="5:5" ht="12.45">
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="5:5" ht="12.45">
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="5:5" ht="12.45">
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="5:5" ht="12.45">
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="5:5" ht="12.45">
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="5:5" ht="12.45">
+      <c r="E248" s="12"/>
+    </row>
+    <row r="249" spans="5:5" ht="12.45">
+      <c r="E249" s="12"/>
+    </row>
+    <row r="250" spans="5:5" ht="12.45">
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="1:5" ht="12.45">
+    <row r="251" spans="5:5" ht="12.45">
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="1:5" ht="12.45">
+    <row r="252" spans="5:5" ht="12.45">
       <c r="E252" s="12"/>
     </row>
-    <row r="253" spans="1:5" ht="12.45">
+    <row r="253" spans="5:5" ht="12.45">
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="1:5" ht="12.45">
+    <row r="254" spans="5:5" ht="12.45">
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="1:5" ht="12.45">
+    <row r="255" spans="5:5" ht="12.45">
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="1:5" ht="12.45">
+    <row r="256" spans="5:5" ht="12.45">
       <c r="E256" s="12"/>
     </row>
     <row r="257" spans="5:5" ht="12.45">
@@ -6919,84 +6736,8 @@
     <row r="971" spans="5:5" ht="12.45">
       <c r="E971" s="12"/>
     </row>
-    <row r="972" spans="5:5" ht="12.45">
-      <c r="E972" s="12"/>
-    </row>
-    <row r="973" spans="5:5" ht="12.45">
-      <c r="E973" s="12"/>
-    </row>
-    <row r="974" spans="5:5" ht="12.45">
-      <c r="E974" s="12"/>
-    </row>
-    <row r="975" spans="5:5" ht="12.45">
-      <c r="E975" s="12"/>
-    </row>
-    <row r="976" spans="5:5" ht="12.45">
-      <c r="E976" s="12"/>
-    </row>
-    <row r="977" spans="5:5" ht="12.45">
-      <c r="E977" s="12"/>
-    </row>
-    <row r="978" spans="5:5" ht="12.45">
-      <c r="E978" s="12"/>
-    </row>
-    <row r="979" spans="5:5" ht="12.45">
-      <c r="E979" s="12"/>
-    </row>
-    <row r="980" spans="5:5" ht="12.45">
-      <c r="E980" s="12"/>
-    </row>
-    <row r="981" spans="5:5" ht="12.45">
-      <c r="E981" s="12"/>
-    </row>
-    <row r="982" spans="5:5" ht="12.45">
-      <c r="E982" s="12"/>
-    </row>
-    <row r="983" spans="5:5" ht="12.45">
-      <c r="E983" s="12"/>
-    </row>
-    <row r="984" spans="5:5" ht="12.45">
-      <c r="E984" s="12"/>
-    </row>
-    <row r="985" spans="5:5" ht="12.45">
-      <c r="E985" s="12"/>
-    </row>
-    <row r="986" spans="5:5" ht="12.45">
-      <c r="E986" s="12"/>
-    </row>
-    <row r="987" spans="5:5" ht="12.45">
-      <c r="E987" s="12"/>
-    </row>
-    <row r="988" spans="5:5" ht="12.45">
-      <c r="E988" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A187:E187"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A155:E155"/>
+  <mergeCells count="29">
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A58:E58"/>
@@ -7005,6 +6746,27 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A220:E220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
